--- a/Data Cleaning and feature engineering report/statistics_columns_with_missing_values.xlsx
+++ b/Data Cleaning and feature engineering report/statistics_columns_with_missing_values.xlsx
@@ -1,66 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gangu\Downloads\Lending club analysis\Output Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gangu\OneDrive\Desktop\Academics\Lending club analysis\Data Cleaning and feature engineering report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D02830A-3337-4805-8C42-653203688785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4CB869-9AA4-447F-8088-6FBD8D5E2821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="48" r:id="rId1"/>
-    <sheet name="emp_title" sheetId="1" r:id="rId2"/>
-    <sheet name="emp_length" sheetId="2" r:id="rId3"/>
-    <sheet name="title" sheetId="3" r:id="rId4"/>
-    <sheet name="zip_code" sheetId="4" r:id="rId5"/>
-    <sheet name="dti" sheetId="5" r:id="rId6"/>
-    <sheet name="inq_last_6mths" sheetId="6" r:id="rId7"/>
-    <sheet name="revol_util" sheetId="7" r:id="rId8"/>
-    <sheet name="last_pymnt_d" sheetId="8" r:id="rId9"/>
-    <sheet name="last_credit_pull_d" sheetId="9" r:id="rId10"/>
-    <sheet name="collections_12_mths_ex_med" sheetId="10" r:id="rId11"/>
-    <sheet name="tot_coll_amt" sheetId="11" r:id="rId12"/>
-    <sheet name="tot_cur_bal" sheetId="12" r:id="rId13"/>
-    <sheet name="total_rev_hi_lim" sheetId="13" r:id="rId14"/>
-    <sheet name="acc_open_past_24mths" sheetId="14" r:id="rId15"/>
-    <sheet name="avg_cur_bal" sheetId="15" r:id="rId16"/>
-    <sheet name="bc_open_to_buy" sheetId="16" r:id="rId17"/>
-    <sheet name="bc_util" sheetId="17" r:id="rId18"/>
-    <sheet name="chargeoff_within_12_mths" sheetId="18" r:id="rId19"/>
-    <sheet name="mo_sin_old_il_acct" sheetId="19" r:id="rId20"/>
-    <sheet name="mo_sin_old_rev_tl_op" sheetId="20" r:id="rId21"/>
-    <sheet name="mo_sin_rcnt_rev_tl_op" sheetId="21" r:id="rId22"/>
-    <sheet name="mo_sin_rcnt_tl" sheetId="22" r:id="rId23"/>
-    <sheet name="mort_acc" sheetId="23" r:id="rId24"/>
-    <sheet name="mths_since_recent_bc" sheetId="24" r:id="rId25"/>
-    <sheet name="mths_since_recent_inq" sheetId="25" r:id="rId26"/>
-    <sheet name="num_accts_ever_120_pd" sheetId="26" r:id="rId27"/>
-    <sheet name="num_actv_bc_tl" sheetId="27" r:id="rId28"/>
-    <sheet name="num_actv_rev_tl" sheetId="28" r:id="rId29"/>
-    <sheet name="num_bc_sats" sheetId="29" r:id="rId30"/>
-    <sheet name="num_bc_tl" sheetId="30" r:id="rId31"/>
-    <sheet name="num_il_tl" sheetId="31" r:id="rId32"/>
-    <sheet name="num_op_rev_tl" sheetId="32" r:id="rId33"/>
-    <sheet name="num_rev_accts" sheetId="33" r:id="rId34"/>
-    <sheet name="num_rev_tl_bal_gt_0" sheetId="34" r:id="rId35"/>
-    <sheet name="num_sats" sheetId="35" r:id="rId36"/>
-    <sheet name="num_tl_120dpd_2m" sheetId="36" r:id="rId37"/>
-    <sheet name="num_tl_30dpd" sheetId="37" r:id="rId38"/>
-    <sheet name="num_tl_90g_dpd_24m" sheetId="38" r:id="rId39"/>
-    <sheet name="num_tl_op_past_12m" sheetId="39" r:id="rId40"/>
-    <sheet name="pct_tl_nvr_dlq" sheetId="40" r:id="rId41"/>
-    <sheet name="percent_bc_gt_75" sheetId="41" r:id="rId42"/>
-    <sheet name="pub_rec_bankruptcies" sheetId="42" r:id="rId43"/>
-    <sheet name="tax_liens" sheetId="43" r:id="rId44"/>
-    <sheet name="tot_hi_cred_lim" sheetId="44" r:id="rId45"/>
-    <sheet name="total_bal_ex_mort" sheetId="45" r:id="rId46"/>
-    <sheet name="total_bc_limit" sheetId="46" r:id="rId47"/>
-    <sheet name="total_il_high_credit_limit" sheetId="47" r:id="rId48"/>
+    <sheet name="Version_control" sheetId="49" r:id="rId1"/>
+    <sheet name="Summary" sheetId="48" r:id="rId2"/>
+    <sheet name="emp_title" sheetId="1" r:id="rId3"/>
+    <sheet name="emp_length" sheetId="2" r:id="rId4"/>
+    <sheet name="title" sheetId="3" r:id="rId5"/>
+    <sheet name="zip_code" sheetId="4" r:id="rId6"/>
+    <sheet name="dti" sheetId="5" r:id="rId7"/>
+    <sheet name="inq_last_6mths" sheetId="6" r:id="rId8"/>
+    <sheet name="revol_util" sheetId="7" r:id="rId9"/>
+    <sheet name="last_pymnt_d" sheetId="8" r:id="rId10"/>
+    <sheet name="last_credit_pull_d" sheetId="9" r:id="rId11"/>
+    <sheet name="collections_12_mths_ex_med" sheetId="10" r:id="rId12"/>
+    <sheet name="tot_coll_amt" sheetId="11" r:id="rId13"/>
+    <sheet name="tot_cur_bal" sheetId="12" r:id="rId14"/>
+    <sheet name="total_rev_hi_lim" sheetId="13" r:id="rId15"/>
+    <sheet name="acc_open_past_24mths" sheetId="14" r:id="rId16"/>
+    <sheet name="avg_cur_bal" sheetId="15" r:id="rId17"/>
+    <sheet name="bc_open_to_buy" sheetId="16" r:id="rId18"/>
+    <sheet name="bc_util" sheetId="17" r:id="rId19"/>
+    <sheet name="chargeoff_within_12_mths" sheetId="18" r:id="rId20"/>
+    <sheet name="mo_sin_old_il_acct" sheetId="19" r:id="rId21"/>
+    <sheet name="mo_sin_old_rev_tl_op" sheetId="20" r:id="rId22"/>
+    <sheet name="mo_sin_rcnt_rev_tl_op" sheetId="21" r:id="rId23"/>
+    <sheet name="mo_sin_rcnt_tl" sheetId="22" r:id="rId24"/>
+    <sheet name="mort_acc" sheetId="23" r:id="rId25"/>
+    <sheet name="mths_since_recent_bc" sheetId="24" r:id="rId26"/>
+    <sheet name="mths_since_recent_inq" sheetId="25" r:id="rId27"/>
+    <sheet name="num_accts_ever_120_pd" sheetId="26" r:id="rId28"/>
+    <sheet name="num_actv_bc_tl" sheetId="27" r:id="rId29"/>
+    <sheet name="num_actv_rev_tl" sheetId="28" r:id="rId30"/>
+    <sheet name="num_bc_sats" sheetId="29" r:id="rId31"/>
+    <sheet name="num_bc_tl" sheetId="30" r:id="rId32"/>
+    <sheet name="num_il_tl" sheetId="31" r:id="rId33"/>
+    <sheet name="num_op_rev_tl" sheetId="32" r:id="rId34"/>
+    <sheet name="num_rev_accts" sheetId="33" r:id="rId35"/>
+    <sheet name="num_rev_tl_bal_gt_0" sheetId="34" r:id="rId36"/>
+    <sheet name="num_sats" sheetId="35" r:id="rId37"/>
+    <sheet name="num_tl_120dpd_2m" sheetId="36" r:id="rId38"/>
+    <sheet name="num_tl_30dpd" sheetId="37" r:id="rId39"/>
+    <sheet name="num_tl_90g_dpd_24m" sheetId="38" r:id="rId40"/>
+    <sheet name="num_tl_op_past_12m" sheetId="39" r:id="rId41"/>
+    <sheet name="pct_tl_nvr_dlq" sheetId="40" r:id="rId42"/>
+    <sheet name="percent_bc_gt_75" sheetId="41" r:id="rId43"/>
+    <sheet name="pub_rec_bankruptcies" sheetId="42" r:id="rId44"/>
+    <sheet name="tax_liens" sheetId="43" r:id="rId45"/>
+    <sheet name="tot_hi_cred_lim" sheetId="44" r:id="rId46"/>
+    <sheet name="total_bal_ex_mort" sheetId="45" r:id="rId47"/>
+    <sheet name="total_bc_limit" sheetId="46" r:id="rId48"/>
+    <sheet name="total_il_high_credit_limit" sheetId="47" r:id="rId49"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2973" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2987" uniqueCount="192">
   <si>
     <t>count</t>
   </si>
@@ -667,6 +668,56 @@
   </si>
   <si>
     <t>Box_Cox transformation required</t>
+  </si>
+  <si>
+    <t>Report Name</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Model Developer</t>
+  </si>
+  <si>
+    <t>Souvik Ganguly</t>
+  </si>
+  <si>
+    <t>Model Owner- Approver 1</t>
+  </si>
+  <si>
+    <t>Model Sponsor- Approver 2</t>
+  </si>
+  <si>
+    <t>statistics_columns_with_missing_values</t>
+  </si>
+  <si>
+    <t>This is an exhaustive analysis workbook where each variables having missing values are analyzed and below conclusions are drawn from the analysis:
+1. Drop Columns(Y/N)
+2. Impute missing values(Y/N)
+3. Impute Missing values by
+4. Impute outlier values(Y/N)
+5. Impute outlier values by
+6. Box_Cox transformation required
+7. Column for Clustering
+8. Column for Prediction</t>
+  </si>
+  <si>
+    <t>statistics_columns_with_missing_values submitted for approval</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1380,7 @@
     <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1532,12 +1583,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1546,6 +1591,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1580,6 +1631,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="17" builtinId="30" customBuiltin="1"/>
@@ -1627,6 +1684,31 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1650,31 +1732,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3270,10 +3327,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6644C8E6-6402-493A-BC69-36B924EBEE0F}" name="Table2" displayName="Table2" ref="A1:L48" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6644C8E6-6402-493A-BC69-36B924EBEE0F}" name="Table2" displayName="Table2" ref="A1:L48" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
   <autoFilter ref="A1:L48" xr:uid="{6644C8E6-6402-493A-BC69-36B924EBEE0F}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{57561B70-E370-4926-B232-BAB83125FEFC}" name="Sr No" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{57561B70-E370-4926-B232-BAB83125FEFC}" name="Sr No" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{83AE4C95-D872-4E6E-B03D-59F1A6C47308}" name="Columns"/>
     <tableColumn id="3" xr3:uid="{B37233E7-FAF5-4583-8913-3E0670E0A26C}" name="Numerical/ Categorical"/>
     <tableColumn id="4" xr3:uid="{E96A1D99-B8B9-42C4-923B-E7FDDEAC5478}" name="Drop column (Y/N)"/>
@@ -3576,1731 +3633,221 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889A2433-60D7-4D50-A2C2-8D0431AB97E1}">
-  <dimension ref="A1:L48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9AD674F-0E6A-4434-AEC5-217294E079C8}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="8" width="13.21875" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="11" width="13.21875" customWidth="1"/>
-    <col min="12" max="12" width="91.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="53.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="H1" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="I1" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="J1" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="K1" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="L1" s="42" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I2" t="s">
-        <v>150</v>
-      </c>
-      <c r="J2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I3" t="s">
-        <v>150</v>
-      </c>
-      <c r="J3" t="s">
-        <v>150</v>
-      </c>
-      <c r="K3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F4" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H4" t="s">
-        <v>150</v>
-      </c>
-      <c r="I4" t="s">
-        <v>150</v>
-      </c>
-      <c r="J4" t="s">
-        <v>150</v>
-      </c>
-      <c r="K4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G5" t="s">
-        <v>150</v>
-      </c>
-      <c r="H5" t="s">
-        <v>150</v>
-      </c>
-      <c r="I5" t="s">
-        <v>150</v>
-      </c>
-      <c r="J5" t="s">
-        <v>150</v>
-      </c>
-      <c r="K5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" t="s">
-        <v>147</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>146</v>
-      </c>
-      <c r="H6" t="s">
-        <v>150</v>
-      </c>
-      <c r="I6" t="s">
-        <v>147</v>
-      </c>
-      <c r="J6" t="s">
-        <v>147</v>
-      </c>
-      <c r="K6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G7" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" t="s">
-        <v>150</v>
-      </c>
-      <c r="I7" t="s">
-        <v>146</v>
-      </c>
-      <c r="J7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" t="s">
-        <v>147</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H8" t="s">
-        <v>150</v>
-      </c>
-      <c r="I8" t="s">
-        <v>146</v>
-      </c>
-      <c r="J8" t="s">
-        <v>147</v>
-      </c>
-      <c r="K8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F9" t="s">
-        <v>150</v>
-      </c>
-      <c r="G9" t="s">
-        <v>150</v>
-      </c>
-      <c r="H9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I9" t="s">
-        <v>150</v>
-      </c>
-      <c r="J9" t="s">
-        <v>150</v>
-      </c>
-      <c r="K9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" t="s">
-        <v>150</v>
-      </c>
-      <c r="H10" t="s">
-        <v>150</v>
-      </c>
-      <c r="I10" t="s">
-        <v>150</v>
-      </c>
-      <c r="J10" t="s">
-        <v>150</v>
-      </c>
-      <c r="K10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D11" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" t="s">
-        <v>150</v>
-      </c>
-      <c r="F11" t="s">
-        <v>150</v>
-      </c>
-      <c r="G11" t="s">
-        <v>150</v>
-      </c>
-      <c r="H11" t="s">
-        <v>150</v>
-      </c>
-      <c r="I11" t="s">
-        <v>150</v>
-      </c>
-      <c r="J11" t="s">
-        <v>150</v>
-      </c>
-      <c r="K11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F12" t="s">
-        <v>150</v>
-      </c>
-      <c r="G12" t="s">
-        <v>150</v>
-      </c>
-      <c r="H12" t="s">
-        <v>150</v>
-      </c>
-      <c r="I12" t="s">
-        <v>150</v>
-      </c>
-      <c r="J12" t="s">
-        <v>150</v>
-      </c>
-      <c r="K12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E13" t="s">
-        <v>147</v>
-      </c>
-      <c r="F13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" t="s">
-        <v>146</v>
-      </c>
-      <c r="H13" t="s">
-        <v>146</v>
-      </c>
-      <c r="I13" t="s">
-        <v>147</v>
-      </c>
-      <c r="J13" t="s">
-        <v>147</v>
-      </c>
-      <c r="K13" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D14" t="s">
-        <v>147</v>
-      </c>
-      <c r="E14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F14" t="s">
-        <v>150</v>
-      </c>
-      <c r="G14" t="s">
-        <v>150</v>
-      </c>
-      <c r="H14" t="s">
-        <v>150</v>
-      </c>
-      <c r="I14" t="s">
-        <v>150</v>
-      </c>
-      <c r="J14" t="s">
-        <v>150</v>
-      </c>
-      <c r="K14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D15" t="s">
-        <v>147</v>
-      </c>
-      <c r="E15" t="s">
-        <v>150</v>
-      </c>
-      <c r="F15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G15" t="s">
-        <v>150</v>
-      </c>
-      <c r="H15" t="s">
-        <v>150</v>
-      </c>
-      <c r="I15" t="s">
-        <v>150</v>
-      </c>
-      <c r="J15" t="s">
-        <v>150</v>
-      </c>
-      <c r="K15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" t="s">
-        <v>146</v>
-      </c>
-      <c r="E16" t="s">
-        <v>147</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>146</v>
-      </c>
-      <c r="H16" t="s">
-        <v>146</v>
-      </c>
-      <c r="I16" t="s">
-        <v>147</v>
-      </c>
-      <c r="J16" t="s">
-        <v>147</v>
-      </c>
-      <c r="K16" t="s">
-        <v>147</v>
-      </c>
-      <c r="L16" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" t="s">
-        <v>147</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s">
-        <v>146</v>
-      </c>
-      <c r="H17" t="s">
-        <v>150</v>
-      </c>
-      <c r="I17" t="s">
-        <v>147</v>
-      </c>
-      <c r="J17" t="s">
-        <v>147</v>
-      </c>
-      <c r="K17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D18" t="s">
-        <v>147</v>
-      </c>
-      <c r="E18" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" t="s">
-        <v>150</v>
-      </c>
-      <c r="G18" t="s">
-        <v>150</v>
-      </c>
-      <c r="H18" t="s">
-        <v>150</v>
-      </c>
-      <c r="I18" t="s">
-        <v>150</v>
-      </c>
-      <c r="J18" t="s">
-        <v>150</v>
-      </c>
-      <c r="K18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" t="s">
-        <v>155</v>
-      </c>
-      <c r="D19" t="s">
-        <v>147</v>
-      </c>
-      <c r="E19" t="s">
-        <v>150</v>
-      </c>
-      <c r="F19" t="s">
-        <v>150</v>
-      </c>
-      <c r="G19" t="s">
-        <v>150</v>
-      </c>
-      <c r="H19" t="s">
-        <v>150</v>
-      </c>
-      <c r="I19" t="s">
-        <v>150</v>
-      </c>
-      <c r="J19" t="s">
-        <v>150</v>
-      </c>
-      <c r="K19" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" t="s">
-        <v>155</v>
-      </c>
-      <c r="D20" t="s">
-        <v>147</v>
-      </c>
-      <c r="E20" t="s">
-        <v>150</v>
-      </c>
-      <c r="F20" t="s">
-        <v>150</v>
-      </c>
-      <c r="G20" t="s">
-        <v>150</v>
-      </c>
-      <c r="H20" t="s">
-        <v>150</v>
-      </c>
-      <c r="I20" t="s">
-        <v>150</v>
-      </c>
-      <c r="J20" t="s">
-        <v>150</v>
-      </c>
-      <c r="K20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D21" t="s">
-        <v>147</v>
-      </c>
-      <c r="E21" t="s">
-        <v>150</v>
-      </c>
-      <c r="F21" t="s">
-        <v>150</v>
-      </c>
-      <c r="G21" t="s">
-        <v>150</v>
-      </c>
-      <c r="H21" t="s">
-        <v>150</v>
-      </c>
-      <c r="I21" t="s">
-        <v>150</v>
-      </c>
-      <c r="J21" t="s">
-        <v>150</v>
-      </c>
-      <c r="K21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D22" t="s">
-        <v>147</v>
-      </c>
-      <c r="E22" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" t="s">
-        <v>150</v>
-      </c>
-      <c r="H22" t="s">
-        <v>150</v>
-      </c>
-      <c r="I22" t="s">
-        <v>150</v>
-      </c>
-      <c r="J22" t="s">
-        <v>150</v>
-      </c>
-      <c r="K22" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" t="s">
-        <v>155</v>
-      </c>
-      <c r="D23" t="s">
-        <v>147</v>
-      </c>
-      <c r="E23" t="s">
-        <v>150</v>
-      </c>
-      <c r="F23" t="s">
-        <v>150</v>
-      </c>
-      <c r="G23" t="s">
-        <v>150</v>
-      </c>
-      <c r="H23" t="s">
-        <v>150</v>
-      </c>
-      <c r="I23" t="s">
-        <v>150</v>
-      </c>
-      <c r="J23" t="s">
-        <v>150</v>
-      </c>
-      <c r="K23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="5">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" t="s">
-        <v>155</v>
-      </c>
-      <c r="D24" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" t="s">
-        <v>147</v>
-      </c>
-      <c r="F24" t="s">
-        <v>162</v>
-      </c>
-      <c r="G24" t="s">
-        <v>146</v>
-      </c>
-      <c r="H24" t="s">
-        <v>146</v>
-      </c>
-      <c r="I24" t="s">
-        <v>147</v>
-      </c>
-      <c r="J24" t="s">
-        <v>147</v>
-      </c>
-      <c r="K24" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" t="s">
-        <v>147</v>
-      </c>
-      <c r="E25" t="s">
-        <v>150</v>
-      </c>
-      <c r="F25" t="s">
-        <v>150</v>
-      </c>
-      <c r="G25" t="s">
-        <v>150</v>
-      </c>
-      <c r="H25" t="s">
-        <v>150</v>
-      </c>
-      <c r="I25" t="s">
-        <v>150</v>
-      </c>
-      <c r="J25" t="s">
-        <v>150</v>
-      </c>
-      <c r="K25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="5">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E26" t="s">
-        <v>150</v>
-      </c>
-      <c r="F26" t="s">
-        <v>150</v>
-      </c>
-      <c r="G26" t="s">
-        <v>150</v>
-      </c>
-      <c r="H26" t="s">
-        <v>150</v>
-      </c>
-      <c r="I26" t="s">
-        <v>150</v>
-      </c>
-      <c r="J26" t="s">
-        <v>150</v>
-      </c>
-      <c r="K26" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" t="s">
-        <v>147</v>
-      </c>
-      <c r="E27" t="s">
-        <v>150</v>
-      </c>
-      <c r="F27" t="s">
-        <v>150</v>
-      </c>
-      <c r="G27" t="s">
-        <v>150</v>
-      </c>
-      <c r="H27" t="s">
-        <v>150</v>
-      </c>
-      <c r="I27" t="s">
-        <v>150</v>
-      </c>
-      <c r="J27" t="s">
-        <v>150</v>
-      </c>
-      <c r="K27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" t="s">
-        <v>155</v>
-      </c>
-      <c r="D28" t="s">
-        <v>147</v>
-      </c>
-      <c r="E28" t="s">
-        <v>150</v>
-      </c>
-      <c r="F28" t="s">
-        <v>150</v>
-      </c>
-      <c r="G28" t="s">
-        <v>150</v>
-      </c>
-      <c r="H28" t="s">
-        <v>150</v>
-      </c>
-      <c r="I28" t="s">
-        <v>150</v>
-      </c>
-      <c r="J28" t="s">
-        <v>150</v>
-      </c>
-      <c r="K28" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="5">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" t="s">
-        <v>155</v>
-      </c>
-      <c r="D29" t="s">
-        <v>146</v>
-      </c>
-      <c r="E29" t="s">
-        <v>147</v>
-      </c>
-      <c r="F29" t="s">
-        <v>162</v>
-      </c>
-      <c r="G29" t="s">
-        <v>146</v>
-      </c>
-      <c r="H29" t="s">
-        <v>146</v>
-      </c>
-      <c r="I29" t="s">
-        <v>147</v>
-      </c>
-      <c r="J29" t="s">
-        <v>147</v>
-      </c>
-      <c r="K29" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="5">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" t="s">
-        <v>155</v>
-      </c>
-      <c r="D30" t="s">
-        <v>147</v>
-      </c>
-      <c r="E30" t="s">
-        <v>150</v>
-      </c>
-      <c r="F30" t="s">
-        <v>150</v>
-      </c>
-      <c r="G30" t="s">
-        <v>150</v>
-      </c>
-      <c r="H30" t="s">
-        <v>150</v>
-      </c>
-      <c r="I30" t="s">
-        <v>150</v>
-      </c>
-      <c r="J30" t="s">
-        <v>150</v>
-      </c>
-      <c r="K30" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="5">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" t="s">
-        <v>150</v>
-      </c>
-      <c r="F31" t="s">
-        <v>150</v>
-      </c>
-      <c r="G31" t="s">
-        <v>150</v>
-      </c>
-      <c r="H31" t="s">
-        <v>150</v>
-      </c>
-      <c r="I31" t="s">
-        <v>150</v>
-      </c>
-      <c r="J31" t="s">
-        <v>150</v>
-      </c>
-      <c r="K31" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="5">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>112</v>
-      </c>
-      <c r="C32" t="s">
-        <v>155</v>
-      </c>
-      <c r="D32" t="s">
-        <v>147</v>
-      </c>
-      <c r="E32" t="s">
-        <v>150</v>
-      </c>
-      <c r="F32" t="s">
-        <v>150</v>
-      </c>
-      <c r="G32" t="s">
-        <v>150</v>
-      </c>
-      <c r="H32" t="s">
-        <v>150</v>
-      </c>
-      <c r="I32" t="s">
-        <v>150</v>
-      </c>
-      <c r="J32" t="s">
-        <v>150</v>
-      </c>
-      <c r="K32" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="5">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" t="s">
-        <v>155</v>
-      </c>
-      <c r="D33" t="s">
-        <v>147</v>
-      </c>
-      <c r="E33" t="s">
-        <v>150</v>
-      </c>
-      <c r="F33" t="s">
-        <v>150</v>
-      </c>
-      <c r="G33" t="s">
-        <v>150</v>
-      </c>
-      <c r="H33" t="s">
-        <v>150</v>
-      </c>
-      <c r="I33" t="s">
-        <v>150</v>
-      </c>
-      <c r="J33" t="s">
-        <v>150</v>
-      </c>
-      <c r="K33" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34" t="s">
-        <v>155</v>
-      </c>
-      <c r="D34" t="s">
-        <v>147</v>
-      </c>
-      <c r="E34" t="s">
-        <v>150</v>
-      </c>
-      <c r="F34" t="s">
-        <v>150</v>
-      </c>
-      <c r="G34" t="s">
-        <v>150</v>
-      </c>
-      <c r="H34" t="s">
-        <v>150</v>
-      </c>
-      <c r="I34" t="s">
-        <v>150</v>
-      </c>
-      <c r="J34" t="s">
-        <v>150</v>
-      </c>
-      <c r="K34" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="5">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" t="s">
-        <v>155</v>
-      </c>
-      <c r="D35" t="s">
-        <v>147</v>
-      </c>
-      <c r="E35" t="s">
-        <v>150</v>
-      </c>
-      <c r="F35" t="s">
-        <v>150</v>
-      </c>
-      <c r="G35" t="s">
-        <v>150</v>
-      </c>
-      <c r="H35" t="s">
-        <v>150</v>
-      </c>
-      <c r="I35" t="s">
-        <v>150</v>
-      </c>
-      <c r="J35" t="s">
-        <v>150</v>
-      </c>
-      <c r="K35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" t="s">
-        <v>155</v>
-      </c>
-      <c r="D36" t="s">
-        <v>147</v>
-      </c>
-      <c r="E36" t="s">
-        <v>150</v>
-      </c>
-      <c r="F36" t="s">
-        <v>150</v>
-      </c>
-      <c r="G36" t="s">
-        <v>150</v>
-      </c>
-      <c r="H36" t="s">
-        <v>150</v>
-      </c>
-      <c r="I36" t="s">
-        <v>150</v>
-      </c>
-      <c r="J36" t="s">
-        <v>150</v>
-      </c>
-      <c r="K36" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="5">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37" t="s">
-        <v>155</v>
-      </c>
-      <c r="D37" t="s">
-        <v>147</v>
-      </c>
-      <c r="E37" t="s">
-        <v>150</v>
-      </c>
-      <c r="F37" t="s">
-        <v>150</v>
-      </c>
-      <c r="G37" t="s">
-        <v>150</v>
-      </c>
-      <c r="H37" t="s">
-        <v>150</v>
-      </c>
-      <c r="I37" t="s">
-        <v>150</v>
-      </c>
-      <c r="J37" t="s">
-        <v>150</v>
-      </c>
-      <c r="K37" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="5">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" t="s">
-        <v>155</v>
-      </c>
-      <c r="D38" t="s">
-        <v>147</v>
-      </c>
-      <c r="E38" t="s">
-        <v>150</v>
-      </c>
-      <c r="F38" t="s">
-        <v>150</v>
-      </c>
-      <c r="G38" t="s">
-        <v>150</v>
-      </c>
-      <c r="H38" t="s">
-        <v>150</v>
-      </c>
-      <c r="I38" t="s">
-        <v>150</v>
-      </c>
-      <c r="J38" t="s">
-        <v>150</v>
-      </c>
-      <c r="K38" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" t="s">
-        <v>155</v>
-      </c>
-      <c r="D39" t="s">
-        <v>147</v>
-      </c>
-      <c r="E39" t="s">
-        <v>150</v>
-      </c>
-      <c r="F39" t="s">
-        <v>150</v>
-      </c>
-      <c r="G39" t="s">
-        <v>150</v>
-      </c>
-      <c r="H39" t="s">
-        <v>150</v>
-      </c>
-      <c r="I39" t="s">
-        <v>150</v>
-      </c>
-      <c r="J39" t="s">
-        <v>150</v>
-      </c>
-      <c r="K39" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="5">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" t="s">
-        <v>155</v>
-      </c>
-      <c r="D40" t="s">
-        <v>147</v>
-      </c>
-      <c r="E40" t="s">
-        <v>150</v>
-      </c>
-      <c r="F40" t="s">
-        <v>150</v>
-      </c>
-      <c r="G40" t="s">
-        <v>150</v>
-      </c>
-      <c r="H40" t="s">
-        <v>150</v>
-      </c>
-      <c r="I40" t="s">
-        <v>150</v>
-      </c>
-      <c r="J40" t="s">
-        <v>150</v>
-      </c>
-      <c r="K40" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="5">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" t="s">
-        <v>155</v>
-      </c>
-      <c r="D41" t="s">
-        <v>147</v>
-      </c>
-      <c r="E41" t="s">
-        <v>150</v>
-      </c>
-      <c r="F41" t="s">
-        <v>150</v>
-      </c>
-      <c r="G41" t="s">
-        <v>150</v>
-      </c>
-      <c r="H41" t="s">
-        <v>150</v>
-      </c>
-      <c r="I41" t="s">
-        <v>150</v>
-      </c>
-      <c r="J41" t="s">
-        <v>150</v>
-      </c>
-      <c r="K41" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="5">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" t="s">
-        <v>155</v>
-      </c>
-      <c r="D42" t="s">
-        <v>146</v>
-      </c>
-      <c r="E42" t="s">
-        <v>147</v>
-      </c>
-      <c r="F42" t="s">
-        <v>162</v>
-      </c>
-      <c r="G42" t="s">
-        <v>146</v>
-      </c>
-      <c r="H42" t="s">
-        <v>146</v>
-      </c>
-      <c r="I42" t="s">
-        <v>147</v>
-      </c>
-      <c r="J42" t="s">
-        <v>147</v>
-      </c>
-      <c r="K42" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" t="s">
-        <v>155</v>
-      </c>
-      <c r="D43" t="s">
-        <v>147</v>
-      </c>
-      <c r="E43" t="s">
-        <v>150</v>
-      </c>
-      <c r="F43" t="s">
-        <v>150</v>
-      </c>
-      <c r="G43" t="s">
-        <v>150</v>
-      </c>
-      <c r="H43" t="s">
-        <v>150</v>
-      </c>
-      <c r="I43" t="s">
-        <v>150</v>
-      </c>
-      <c r="J43" t="s">
-        <v>150</v>
-      </c>
-      <c r="K43" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" t="s">
-        <v>155</v>
-      </c>
-      <c r="D44" t="s">
-        <v>147</v>
-      </c>
-      <c r="E44" t="s">
-        <v>150</v>
-      </c>
-      <c r="F44" t="s">
-        <v>150</v>
-      </c>
-      <c r="G44" t="s">
-        <v>150</v>
-      </c>
-      <c r="H44" t="s">
-        <v>150</v>
-      </c>
-      <c r="I44" t="s">
-        <v>150</v>
-      </c>
-      <c r="J44" t="s">
-        <v>150</v>
-      </c>
-      <c r="K44" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" s="5">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>125</v>
-      </c>
-      <c r="C45" t="s">
-        <v>155</v>
-      </c>
-      <c r="D45" t="s">
-        <v>146</v>
-      </c>
-      <c r="E45" t="s">
-        <v>147</v>
-      </c>
-      <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s">
-        <v>146</v>
-      </c>
-      <c r="H45" t="s">
-        <v>146</v>
-      </c>
-      <c r="I45" t="s">
-        <v>147</v>
-      </c>
-      <c r="J45" t="s">
-        <v>147</v>
-      </c>
-      <c r="K45" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" s="5">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C46" t="s">
-        <v>156</v>
-      </c>
-      <c r="D46" t="s">
-        <v>146</v>
-      </c>
-      <c r="E46" t="s">
-        <v>147</v>
-      </c>
-      <c r="F46" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" t="s">
-        <v>146</v>
-      </c>
-      <c r="H46" t="s">
-        <v>146</v>
-      </c>
-      <c r="I46" t="s">
-        <v>147</v>
-      </c>
-      <c r="J46" t="s">
-        <v>147</v>
-      </c>
-      <c r="K46" t="s">
-        <v>147</v>
-      </c>
-      <c r="L46" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>127</v>
-      </c>
-      <c r="C47" t="s">
-        <v>156</v>
-      </c>
-      <c r="D47" t="s">
-        <v>146</v>
-      </c>
-      <c r="E47" t="s">
-        <v>147</v>
-      </c>
-      <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s">
-        <v>146</v>
-      </c>
-      <c r="H47" t="s">
-        <v>146</v>
-      </c>
-      <c r="I47" t="s">
-        <v>147</v>
-      </c>
-      <c r="J47" t="s">
-        <v>147</v>
-      </c>
-      <c r="K47" t="s">
-        <v>147</v>
-      </c>
-      <c r="L47" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48" t="s">
-        <v>156</v>
-      </c>
-      <c r="D48" t="s">
-        <v>146</v>
-      </c>
-      <c r="E48" t="s">
-        <v>147</v>
-      </c>
-      <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s">
-        <v>146</v>
-      </c>
-      <c r="H48" t="s">
-        <v>146</v>
-      </c>
-      <c r="I48" t="s">
-        <v>147</v>
-      </c>
-      <c r="J48" t="s">
-        <v>147</v>
-      </c>
-      <c r="K48" t="s">
-        <v>147</v>
-      </c>
-      <c r="L48" t="s">
-        <v>160</v>
-      </c>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="98" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="98" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="98" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="100" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="99">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="100" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="98" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="98" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="98" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="98" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="99" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="99" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="99" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="101">
+        <v>45417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="99" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="99" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:Q7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
+      <c r="K1" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+    </row>
+    <row r="2" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="K2" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="57"/>
+    </row>
+    <row r="3" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="60"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="50"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="60"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="46"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="60"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="60"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K7" s="61"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B1:G5"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="K2:Q7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
@@ -5430,7 +3977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -5857,7 +4404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -6291,7 +4838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:U32"/>
   <sheetViews>
@@ -6325,12 +4872,12 @@
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
       <c r="G1" s="48"/>
-      <c r="J1" s="86" t="s">
+      <c r="J1" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
       <c r="O1" s="64" t="s">
         <v>58</v>
       </c>
@@ -6349,10 +4896,10 @@
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
       <c r="G2" s="50"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
       <c r="O2" s="81" t="s">
         <v>81</v>
       </c>
@@ -6438,7 +4985,7 @@
       <c r="L5" s="19">
         <v>8625</v>
       </c>
-      <c r="M5" s="83" t="s">
+      <c r="M5" s="86" t="s">
         <v>69</v>
       </c>
       <c r="O5" s="81"/>
@@ -6459,7 +5006,7 @@
       <c r="L6" s="19">
         <v>5440.2000000000098</v>
       </c>
-      <c r="M6" s="83"/>
+      <c r="M6" s="86"/>
       <c r="O6" s="81"/>
       <c r="P6" s="81"/>
       <c r="Q6" s="81"/>
@@ -6496,7 +5043,7 @@
       <c r="L7" s="19">
         <v>5086.7999999999802</v>
       </c>
-      <c r="M7" s="83"/>
+      <c r="M7" s="86"/>
       <c r="O7" s="81"/>
       <c r="P7" s="81"/>
       <c r="Q7" s="81"/>
@@ -6533,7 +5080,7 @@
       <c r="L8" s="19">
         <v>5017</v>
       </c>
-      <c r="M8" s="83"/>
+      <c r="M8" s="86"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -6570,7 +5117,7 @@
       <c r="L9" s="19">
         <v>5254</v>
       </c>
-      <c r="M9" s="83"/>
+      <c r="M9" s="86"/>
       <c r="O9" s="65" t="s">
         <v>59</v>
       </c>
@@ -6609,7 +5156,7 @@
       <c r="L10" s="19">
         <v>5884</v>
       </c>
-      <c r="M10" s="83"/>
+      <c r="M10" s="86"/>
       <c r="O10" s="76" t="s">
         <v>157</v>
       </c>
@@ -6648,14 +5195,14 @@
       <c r="L11" s="19">
         <v>6893.6999999999498</v>
       </c>
-      <c r="M11" s="83"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="82"/>
+      <c r="M11" s="86"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="85"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="85"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -6685,14 +5232,14 @@
       <c r="L12" s="19">
         <v>8751.3000000000393</v>
       </c>
-      <c r="M12" s="83"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="82"/>
+      <c r="M12" s="86"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="85"/>
+      <c r="T12" s="85"/>
+      <c r="U12" s="85"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -6722,14 +5269,14 @@
       <c r="L13" s="19">
         <v>11991</v>
       </c>
-      <c r="M13" s="83"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82"/>
-      <c r="U13" s="82"/>
+      <c r="M13" s="86"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="85"/>
+      <c r="S13" s="85"/>
+      <c r="T13" s="85"/>
+      <c r="U13" s="85"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -6759,7 +5306,7 @@
       <c r="L14" s="19">
         <v>17288</v>
       </c>
-      <c r="M14" s="83"/>
+      <c r="M14" s="86"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -6789,7 +5336,7 @@
       <c r="L15" s="15">
         <v>23130</v>
       </c>
-      <c r="M15" s="84" t="s">
+      <c r="M15" s="82" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6821,7 +5368,7 @@
       <c r="L16" s="15">
         <v>26472.199999999899</v>
       </c>
-      <c r="M16" s="84"/>
+      <c r="M16" s="82"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -6851,7 +5398,7 @@
       <c r="L17" s="15">
         <v>26124.799999999999</v>
       </c>
-      <c r="M17" s="84"/>
+      <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -6881,7 +5428,7 @@
       <c r="L18" s="15">
         <v>26162</v>
       </c>
-      <c r="M18" s="84"/>
+      <c r="M18" s="82"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -6911,7 +5458,7 @@
       <c r="L19" s="15">
         <v>28595</v>
       </c>
-      <c r="M19" s="84"/>
+      <c r="M19" s="82"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J20" s="14">
@@ -6923,7 +5470,7 @@
       <c r="L20" s="15">
         <v>33341.599999999999</v>
       </c>
-      <c r="M20" s="84"/>
+      <c r="M20" s="82"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J21" s="14">
@@ -6935,7 +5482,7 @@
       <c r="L21" s="15">
         <v>40955.3999999999</v>
       </c>
-      <c r="M21" s="84"/>
+      <c r="M21" s="82"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J22" s="14">
@@ -6947,7 +5494,7 @@
       <c r="L22" s="15">
         <v>55353</v>
       </c>
-      <c r="M22" s="84"/>
+      <c r="M22" s="82"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J23" s="16">
@@ -6959,7 +5506,7 @@
       <c r="L23" s="17">
         <v>93108</v>
       </c>
-      <c r="M23" s="85" t="s">
+      <c r="M23" s="83" t="s">
         <v>72</v>
       </c>
     </row>
@@ -6973,7 +5520,7 @@
       <c r="L24" s="17">
         <v>29321.4399999999</v>
       </c>
-      <c r="M24" s="85"/>
+      <c r="M24" s="83"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J25" s="16">
@@ -6985,7 +5532,7 @@
       <c r="L25" s="17">
         <v>18197.560000000001</v>
       </c>
-      <c r="M25" s="85"/>
+      <c r="M25" s="83"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J26" s="16">
@@ -6997,7 +5544,7 @@
       <c r="L26" s="17">
         <v>21789</v>
       </c>
-      <c r="M26" s="85"/>
+      <c r="M26" s="83"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J27" s="16">
@@ -7009,7 +5556,7 @@
       <c r="L27" s="17">
         <v>26955.8999999999</v>
       </c>
-      <c r="M27" s="85"/>
+      <c r="M27" s="83"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J28" s="16">
@@ -7021,7 +5568,7 @@
       <c r="L28" s="17">
         <v>33622.939999997601</v>
       </c>
-      <c r="M28" s="85"/>
+      <c r="M28" s="83"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J29" s="16">
@@ -7033,7 +5580,7 @@
       <c r="L29" s="17">
         <v>45328.0500000026</v>
       </c>
-      <c r="M29" s="85"/>
+      <c r="M29" s="83"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J30" s="16">
@@ -7045,7 +5592,7 @@
       <c r="L30" s="17">
         <v>65600.709999998493</v>
       </c>
-      <c r="M30" s="85"/>
+      <c r="M30" s="83"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J31" s="16">
@@ -7057,7 +5604,7 @@
       <c r="L31" s="17">
         <v>131934.640000004</v>
       </c>
-      <c r="M31" s="85"/>
+      <c r="M31" s="83"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J32" s="20">
@@ -7075,6 +5622,9 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B1:G5"/>
+    <mergeCell ref="M5:M14"/>
     <mergeCell ref="M15:M22"/>
     <mergeCell ref="M23:M31"/>
     <mergeCell ref="J1:M2"/>
@@ -7082,16 +5632,13 @@
     <mergeCell ref="O2:U7"/>
     <mergeCell ref="O9:U9"/>
     <mergeCell ref="O10:U13"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B1:G5"/>
-    <mergeCell ref="M5:M14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -7461,7 +6008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -7831,7 +6378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:U32"/>
   <sheetViews>
@@ -7887,8 +6434,8 @@
       <c r="F2" s="49"/>
       <c r="G2" s="50"/>
       <c r="J2" s="94"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
       <c r="M2" s="95"/>
       <c r="O2" s="81" t="s">
         <v>80</v>
@@ -7974,7 +6521,7 @@
       <c r="L5" s="28">
         <v>1100</v>
       </c>
-      <c r="M5" s="83" t="s">
+      <c r="M5" s="86" t="s">
         <v>69</v>
       </c>
       <c r="O5" s="81"/>
@@ -7995,7 +6542,7 @@
       <c r="L6" s="28">
         <v>540</v>
       </c>
-      <c r="M6" s="83"/>
+      <c r="M6" s="86"/>
       <c r="O6" s="81"/>
       <c r="P6" s="81"/>
       <c r="Q6" s="81"/>
@@ -8032,7 +6579,7 @@
       <c r="L7" s="28">
         <v>488</v>
       </c>
-      <c r="M7" s="83"/>
+      <c r="M7" s="86"/>
       <c r="O7" s="81"/>
       <c r="P7" s="81"/>
       <c r="Q7" s="81"/>
@@ -8069,7 +6616,7 @@
       <c r="L8" s="28">
         <v>477</v>
       </c>
-      <c r="M8" s="83"/>
+      <c r="M8" s="86"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -8106,7 +6653,7 @@
       <c r="L9" s="28">
         <v>496</v>
       </c>
-      <c r="M9" s="83"/>
+      <c r="M9" s="86"/>
       <c r="O9" s="65" t="s">
         <v>59</v>
       </c>
@@ -8145,7 +6692,7 @@
       <c r="L10" s="28">
         <v>542</v>
       </c>
-      <c r="M10" s="83"/>
+      <c r="M10" s="86"/>
       <c r="O10" s="76" t="s">
         <v>159</v>
       </c>
@@ -8184,14 +6731,14 @@
       <c r="L11" s="28">
         <v>636</v>
       </c>
-      <c r="M11" s="83"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="82"/>
+      <c r="M11" s="86"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="85"/>
+      <c r="T11" s="85"/>
+      <c r="U11" s="85"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -8221,14 +6768,14 @@
       <c r="L12" s="28">
         <v>779</v>
       </c>
-      <c r="M12" s="83"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="82"/>
+      <c r="M12" s="86"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="85"/>
+      <c r="T12" s="85"/>
+      <c r="U12" s="85"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -8258,14 +6805,14 @@
       <c r="L13" s="28">
         <v>999</v>
       </c>
-      <c r="M13" s="83"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82"/>
-      <c r="U13" s="82"/>
+      <c r="M13" s="86"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="85"/>
+      <c r="S13" s="85"/>
+      <c r="T13" s="85"/>
+      <c r="U13" s="85"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -8295,7 +6842,7 @@
       <c r="L14" s="30">
         <v>1350</v>
       </c>
-      <c r="M14" s="84" t="s">
+      <c r="M14" s="82" t="s">
         <v>71</v>
       </c>
     </row>
@@ -8327,7 +6874,7 @@
       <c r="L15" s="30">
         <v>1738</v>
       </c>
-      <c r="M15" s="84"/>
+      <c r="M15" s="82"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -8357,7 +6904,7 @@
       <c r="L16" s="30">
         <v>2054</v>
       </c>
-      <c r="M16" s="84"/>
+      <c r="M16" s="82"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -8387,7 +6934,7 @@
       <c r="L17" s="30">
         <v>2247</v>
       </c>
-      <c r="M17" s="84"/>
+      <c r="M17" s="82"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -8417,7 +6964,7 @@
       <c r="L18" s="30">
         <v>2471</v>
       </c>
-      <c r="M18" s="84"/>
+      <c r="M18" s="82"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -8447,7 +6994,7 @@
       <c r="L19" s="30">
         <v>2800</v>
       </c>
-      <c r="M19" s="84"/>
+      <c r="M19" s="82"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J20" s="29">
@@ -8459,7 +7006,7 @@
       <c r="L20" s="30">
         <v>3322</v>
       </c>
-      <c r="M20" s="84"/>
+      <c r="M20" s="82"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J21" s="29">
@@ -8471,7 +7018,7 @@
       <c r="L21" s="30">
         <v>4220</v>
       </c>
-      <c r="M21" s="84"/>
+      <c r="M21" s="82"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J22" s="29">
@@ -8483,7 +7030,7 @@
       <c r="L22" s="30">
         <v>5961</v>
       </c>
-      <c r="M22" s="84"/>
+      <c r="M22" s="82"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J23" s="31">
@@ -8495,7 +7042,7 @@
       <c r="L23" s="32">
         <v>10825</v>
       </c>
-      <c r="M23" s="85" t="s">
+      <c r="M23" s="83" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8509,7 +7056,7 @@
       <c r="L24" s="32">
         <v>3665.6</v>
       </c>
-      <c r="M24" s="85"/>
+      <c r="M24" s="83"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J25" s="31">
@@ -8521,7 +7068,7 @@
       <c r="L25" s="32">
         <v>2284.8000000000002</v>
       </c>
-      <c r="M25" s="85"/>
+      <c r="M25" s="83"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J26" s="31">
@@ -8533,7 +7080,7 @@
       <c r="L26" s="32">
         <v>2706.8</v>
       </c>
-      <c r="M26" s="85"/>
+      <c r="M26" s="83"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J27" s="31">
@@ -8545,7 +7092,7 @@
       <c r="L27" s="32">
         <v>3319.8</v>
       </c>
-      <c r="M27" s="85"/>
+      <c r="M27" s="83"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J28" s="31">
@@ -8557,7 +7104,7 @@
       <c r="L28" s="32">
         <v>4232</v>
       </c>
-      <c r="M28" s="85"/>
+      <c r="M28" s="83"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J29" s="31">
@@ -8569,7 +7116,7 @@
       <c r="L29" s="32">
         <v>5699.8</v>
       </c>
-      <c r="M29" s="85"/>
+      <c r="M29" s="83"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J30" s="31">
@@ -8581,7 +7128,7 @@
       <c r="L30" s="32">
         <v>8573</v>
       </c>
-      <c r="M30" s="85"/>
+      <c r="M30" s="83"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J31" s="31">
@@ -8593,7 +7140,7 @@
       <c r="L31" s="32">
         <v>16627.2</v>
       </c>
-      <c r="M31" s="85"/>
+      <c r="M31" s="83"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J32" s="33">
@@ -8611,23 +7158,23 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="M14:M22"/>
+    <mergeCell ref="M23:M31"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B1:G5"/>
+    <mergeCell ref="J1:M2"/>
     <mergeCell ref="O1:U1"/>
     <mergeCell ref="O2:U7"/>
     <mergeCell ref="O9:U9"/>
     <mergeCell ref="O10:U13"/>
     <mergeCell ref="M5:M13"/>
-    <mergeCell ref="M14:M22"/>
-    <mergeCell ref="M23:M31"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B1:G5"/>
-    <mergeCell ref="J1:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -9111,7 +7658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -9595,7 +8142,1734 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889A2433-60D7-4D50-A2C2-8D0431AB97E1}">
+  <dimension ref="A1:L48"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="8" width="13.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="11" width="13.21875" customWidth="1"/>
+    <col min="12" max="12" width="91.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" t="s">
+        <v>150</v>
+      </c>
+      <c r="K3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J6" t="s">
+        <v>147</v>
+      </c>
+      <c r="K6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I7" t="s">
+        <v>146</v>
+      </c>
+      <c r="J7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H8" t="s">
+        <v>150</v>
+      </c>
+      <c r="I8" t="s">
+        <v>146</v>
+      </c>
+      <c r="J8" t="s">
+        <v>147</v>
+      </c>
+      <c r="K8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" t="s">
+        <v>150</v>
+      </c>
+      <c r="J9" t="s">
+        <v>150</v>
+      </c>
+      <c r="K9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" t="s">
+        <v>150</v>
+      </c>
+      <c r="H10" t="s">
+        <v>150</v>
+      </c>
+      <c r="I10" t="s">
+        <v>150</v>
+      </c>
+      <c r="J10" t="s">
+        <v>150</v>
+      </c>
+      <c r="K10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" t="s">
+        <v>150</v>
+      </c>
+      <c r="I11" t="s">
+        <v>150</v>
+      </c>
+      <c r="J11" t="s">
+        <v>150</v>
+      </c>
+      <c r="K11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12" t="s">
+        <v>150</v>
+      </c>
+      <c r="J12" t="s">
+        <v>150</v>
+      </c>
+      <c r="K12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" t="s">
+        <v>150</v>
+      </c>
+      <c r="H14" t="s">
+        <v>150</v>
+      </c>
+      <c r="I14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" t="s">
+        <v>150</v>
+      </c>
+      <c r="K14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15" t="s">
+        <v>150</v>
+      </c>
+      <c r="I15" t="s">
+        <v>150</v>
+      </c>
+      <c r="J15" t="s">
+        <v>150</v>
+      </c>
+      <c r="K15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>146</v>
+      </c>
+      <c r="H16" t="s">
+        <v>146</v>
+      </c>
+      <c r="I16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" t="s">
+        <v>147</v>
+      </c>
+      <c r="L16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" t="s">
+        <v>150</v>
+      </c>
+      <c r="I17" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" t="s">
+        <v>150</v>
+      </c>
+      <c r="H18" t="s">
+        <v>150</v>
+      </c>
+      <c r="I18" t="s">
+        <v>150</v>
+      </c>
+      <c r="J18" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" t="s">
+        <v>150</v>
+      </c>
+      <c r="H19" t="s">
+        <v>150</v>
+      </c>
+      <c r="I19" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" t="s">
+        <v>150</v>
+      </c>
+      <c r="K19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" t="s">
+        <v>150</v>
+      </c>
+      <c r="H20" t="s">
+        <v>150</v>
+      </c>
+      <c r="I20" t="s">
+        <v>150</v>
+      </c>
+      <c r="J20" t="s">
+        <v>150</v>
+      </c>
+      <c r="K20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" t="s">
+        <v>150</v>
+      </c>
+      <c r="H21" t="s">
+        <v>150</v>
+      </c>
+      <c r="I21" t="s">
+        <v>150</v>
+      </c>
+      <c r="J21" t="s">
+        <v>150</v>
+      </c>
+      <c r="K21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" t="s">
+        <v>150</v>
+      </c>
+      <c r="H22" t="s">
+        <v>150</v>
+      </c>
+      <c r="I22" t="s">
+        <v>150</v>
+      </c>
+      <c r="J22" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" t="s">
+        <v>150</v>
+      </c>
+      <c r="I23" t="s">
+        <v>150</v>
+      </c>
+      <c r="J23" t="s">
+        <v>150</v>
+      </c>
+      <c r="K23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" t="s">
+        <v>162</v>
+      </c>
+      <c r="G24" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" t="s">
+        <v>146</v>
+      </c>
+      <c r="I24" t="s">
+        <v>147</v>
+      </c>
+      <c r="J24" t="s">
+        <v>147</v>
+      </c>
+      <c r="K24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" t="s">
+        <v>150</v>
+      </c>
+      <c r="F25" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" t="s">
+        <v>150</v>
+      </c>
+      <c r="I25" t="s">
+        <v>150</v>
+      </c>
+      <c r="J25" t="s">
+        <v>150</v>
+      </c>
+      <c r="K25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" t="s">
+        <v>150</v>
+      </c>
+      <c r="I26" t="s">
+        <v>150</v>
+      </c>
+      <c r="J26" t="s">
+        <v>150</v>
+      </c>
+      <c r="K26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" t="s">
+        <v>150</v>
+      </c>
+      <c r="F27" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" t="s">
+        <v>150</v>
+      </c>
+      <c r="I27" t="s">
+        <v>150</v>
+      </c>
+      <c r="J27" t="s">
+        <v>150</v>
+      </c>
+      <c r="K27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" t="s">
+        <v>150</v>
+      </c>
+      <c r="G28" t="s">
+        <v>150</v>
+      </c>
+      <c r="H28" t="s">
+        <v>150</v>
+      </c>
+      <c r="I28" t="s">
+        <v>150</v>
+      </c>
+      <c r="J28" t="s">
+        <v>150</v>
+      </c>
+      <c r="K28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" t="s">
+        <v>162</v>
+      </c>
+      <c r="G29" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" t="s">
+        <v>146</v>
+      </c>
+      <c r="I29" t="s">
+        <v>147</v>
+      </c>
+      <c r="J29" t="s">
+        <v>147</v>
+      </c>
+      <c r="K29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" t="s">
+        <v>150</v>
+      </c>
+      <c r="H30" t="s">
+        <v>150</v>
+      </c>
+      <c r="I30" t="s">
+        <v>150</v>
+      </c>
+      <c r="J30" t="s">
+        <v>150</v>
+      </c>
+      <c r="K30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" t="s">
+        <v>150</v>
+      </c>
+      <c r="G31" t="s">
+        <v>150</v>
+      </c>
+      <c r="H31" t="s">
+        <v>150</v>
+      </c>
+      <c r="I31" t="s">
+        <v>150</v>
+      </c>
+      <c r="J31" t="s">
+        <v>150</v>
+      </c>
+      <c r="K31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" t="s">
+        <v>150</v>
+      </c>
+      <c r="F32" t="s">
+        <v>150</v>
+      </c>
+      <c r="G32" t="s">
+        <v>150</v>
+      </c>
+      <c r="H32" t="s">
+        <v>150</v>
+      </c>
+      <c r="I32" t="s">
+        <v>150</v>
+      </c>
+      <c r="J32" t="s">
+        <v>150</v>
+      </c>
+      <c r="K32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C33" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" t="s">
+        <v>150</v>
+      </c>
+      <c r="G33" t="s">
+        <v>150</v>
+      </c>
+      <c r="H33" t="s">
+        <v>150</v>
+      </c>
+      <c r="I33" t="s">
+        <v>150</v>
+      </c>
+      <c r="J33" t="s">
+        <v>150</v>
+      </c>
+      <c r="K33" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" t="s">
+        <v>150</v>
+      </c>
+      <c r="F34" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34" t="s">
+        <v>150</v>
+      </c>
+      <c r="H34" t="s">
+        <v>150</v>
+      </c>
+      <c r="I34" t="s">
+        <v>150</v>
+      </c>
+      <c r="J34" t="s">
+        <v>150</v>
+      </c>
+      <c r="K34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" t="s">
+        <v>150</v>
+      </c>
+      <c r="F35" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35" t="s">
+        <v>150</v>
+      </c>
+      <c r="H35" t="s">
+        <v>150</v>
+      </c>
+      <c r="I35" t="s">
+        <v>150</v>
+      </c>
+      <c r="J35" t="s">
+        <v>150</v>
+      </c>
+      <c r="K35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D36" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" t="s">
+        <v>150</v>
+      </c>
+      <c r="F36" t="s">
+        <v>150</v>
+      </c>
+      <c r="G36" t="s">
+        <v>150</v>
+      </c>
+      <c r="H36" t="s">
+        <v>150</v>
+      </c>
+      <c r="I36" t="s">
+        <v>150</v>
+      </c>
+      <c r="J36" t="s">
+        <v>150</v>
+      </c>
+      <c r="K36" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" t="s">
+        <v>147</v>
+      </c>
+      <c r="E37" t="s">
+        <v>150</v>
+      </c>
+      <c r="F37" t="s">
+        <v>150</v>
+      </c>
+      <c r="G37" t="s">
+        <v>150</v>
+      </c>
+      <c r="H37" t="s">
+        <v>150</v>
+      </c>
+      <c r="I37" t="s">
+        <v>150</v>
+      </c>
+      <c r="J37" t="s">
+        <v>150</v>
+      </c>
+      <c r="K37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" t="s">
+        <v>147</v>
+      </c>
+      <c r="E38" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" t="s">
+        <v>150</v>
+      </c>
+      <c r="G38" t="s">
+        <v>150</v>
+      </c>
+      <c r="H38" t="s">
+        <v>150</v>
+      </c>
+      <c r="I38" t="s">
+        <v>150</v>
+      </c>
+      <c r="J38" t="s">
+        <v>150</v>
+      </c>
+      <c r="K38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" t="s">
+        <v>147</v>
+      </c>
+      <c r="E39" t="s">
+        <v>150</v>
+      </c>
+      <c r="F39" t="s">
+        <v>150</v>
+      </c>
+      <c r="G39" t="s">
+        <v>150</v>
+      </c>
+      <c r="H39" t="s">
+        <v>150</v>
+      </c>
+      <c r="I39" t="s">
+        <v>150</v>
+      </c>
+      <c r="J39" t="s">
+        <v>150</v>
+      </c>
+      <c r="K39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" t="s">
+        <v>150</v>
+      </c>
+      <c r="F40" t="s">
+        <v>150</v>
+      </c>
+      <c r="G40" t="s">
+        <v>150</v>
+      </c>
+      <c r="H40" t="s">
+        <v>150</v>
+      </c>
+      <c r="I40" t="s">
+        <v>150</v>
+      </c>
+      <c r="J40" t="s">
+        <v>150</v>
+      </c>
+      <c r="K40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" t="s">
+        <v>147</v>
+      </c>
+      <c r="E41" t="s">
+        <v>150</v>
+      </c>
+      <c r="F41" t="s">
+        <v>150</v>
+      </c>
+      <c r="G41" t="s">
+        <v>150</v>
+      </c>
+      <c r="H41" t="s">
+        <v>150</v>
+      </c>
+      <c r="I41" t="s">
+        <v>150</v>
+      </c>
+      <c r="J41" t="s">
+        <v>150</v>
+      </c>
+      <c r="K41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" t="s">
+        <v>146</v>
+      </c>
+      <c r="E42" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42" t="s">
+        <v>162</v>
+      </c>
+      <c r="G42" t="s">
+        <v>146</v>
+      </c>
+      <c r="H42" t="s">
+        <v>146</v>
+      </c>
+      <c r="I42" t="s">
+        <v>147</v>
+      </c>
+      <c r="J42" t="s">
+        <v>147</v>
+      </c>
+      <c r="K42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" t="s">
+        <v>150</v>
+      </c>
+      <c r="F43" t="s">
+        <v>150</v>
+      </c>
+      <c r="G43" t="s">
+        <v>150</v>
+      </c>
+      <c r="H43" t="s">
+        <v>150</v>
+      </c>
+      <c r="I43" t="s">
+        <v>150</v>
+      </c>
+      <c r="J43" t="s">
+        <v>150</v>
+      </c>
+      <c r="K43" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" t="s">
+        <v>147</v>
+      </c>
+      <c r="E44" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" t="s">
+        <v>150</v>
+      </c>
+      <c r="G44" t="s">
+        <v>150</v>
+      </c>
+      <c r="H44" t="s">
+        <v>150</v>
+      </c>
+      <c r="I44" t="s">
+        <v>150</v>
+      </c>
+      <c r="J44" t="s">
+        <v>150</v>
+      </c>
+      <c r="K44" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
+        <v>146</v>
+      </c>
+      <c r="H45" t="s">
+        <v>146</v>
+      </c>
+      <c r="I45" t="s">
+        <v>147</v>
+      </c>
+      <c r="J45" t="s">
+        <v>147</v>
+      </c>
+      <c r="K45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" t="s">
+        <v>156</v>
+      </c>
+      <c r="D46" t="s">
+        <v>146</v>
+      </c>
+      <c r="E46" t="s">
+        <v>147</v>
+      </c>
+      <c r="F46" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s">
+        <v>146</v>
+      </c>
+      <c r="H46" t="s">
+        <v>146</v>
+      </c>
+      <c r="I46" t="s">
+        <v>147</v>
+      </c>
+      <c r="J46" t="s">
+        <v>147</v>
+      </c>
+      <c r="K46" t="s">
+        <v>147</v>
+      </c>
+      <c r="L46" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" t="s">
+        <v>146</v>
+      </c>
+      <c r="H47" t="s">
+        <v>146</v>
+      </c>
+      <c r="I47" t="s">
+        <v>147</v>
+      </c>
+      <c r="J47" t="s">
+        <v>147</v>
+      </c>
+      <c r="K47" t="s">
+        <v>147</v>
+      </c>
+      <c r="L47" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>128</v>
+      </c>
+      <c r="C48" t="s">
+        <v>156</v>
+      </c>
+      <c r="D48" t="s">
+        <v>146</v>
+      </c>
+      <c r="E48" t="s">
+        <v>147</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s">
+        <v>146</v>
+      </c>
+      <c r="H48" t="s">
+        <v>146</v>
+      </c>
+      <c r="I48" t="s">
+        <v>147</v>
+      </c>
+      <c r="J48" t="s">
+        <v>147</v>
+      </c>
+      <c r="K48" t="s">
+        <v>147</v>
+      </c>
+      <c r="L48" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -9643,15 +9917,15 @@
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
       <c r="G2" s="50"/>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="45"/>
@@ -9661,13 +9935,13 @@
       <c r="E3" s="49"/>
       <c r="F3" s="49"/>
       <c r="G3" s="50"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="45"/>
@@ -9958,138 +10232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q7"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
-      <c r="K1" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-    </row>
-    <row r="2" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
-      <c r="K2" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="57"/>
-    </row>
-    <row r="3" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="60"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="50"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="60"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="60"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="K6" s="58"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="60"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="K7" s="61"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="63"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B1:G5"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="K2:Q7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -10459,7 +10602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -10829,7 +10972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -11199,7 +11342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -11569,7 +11712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -12053,7 +12196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -12423,7 +12566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -12793,7 +12936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -12841,15 +12984,15 @@
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
       <c r="G2" s="50"/>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="45"/>
@@ -12859,13 +13002,13 @@
       <c r="E3" s="49"/>
       <c r="F3" s="49"/>
       <c r="G3" s="50"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="45"/>
@@ -13157,7 +13300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -13527,7 +13670,138 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
+      <c r="K1" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+    </row>
+    <row r="2" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="K2" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="57"/>
+    </row>
+    <row r="3" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="60"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="50"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="60"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="46"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="60"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="60"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K7" s="61"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B1:G5"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="K2:Q7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -14006,138 +14280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q7"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:Q7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
-      <c r="K1" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-    </row>
-    <row r="2" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
-      <c r="K2" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="57"/>
-    </row>
-    <row r="3" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="60"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="50"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="60"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="60"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="K6" s="58"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="60"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="K7" s="61"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="63"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B1:G5"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="K2:Q7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -14507,7 +14650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -14877,7 +15020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -15247,7 +15390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -15617,7 +15760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -15987,7 +16130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -16357,7 +16500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -16728,7 +16871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -17092,7 +17235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -17455,7 +17598,138 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Q7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:Q7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
+      <c r="K1" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+    </row>
+    <row r="2" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="K2" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="57"/>
+    </row>
+    <row r="3" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="60"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="50"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="60"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="46"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="60"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="60"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K7" s="61"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B1:G5"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="K2:Q7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -17503,15 +17777,15 @@
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
       <c r="G2" s="50"/>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="45"/>
@@ -17521,13 +17795,13 @@
       <c r="E3" s="49"/>
       <c r="F3" s="49"/>
       <c r="G3" s="50"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="45"/>
@@ -17818,138 +18092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q7"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
-      <c r="K1" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-    </row>
-    <row r="2" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
-      <c r="K2" s="55" t="s">
-        <v>172</v>
-      </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="57"/>
-    </row>
-    <row r="3" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="60"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="50"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="60"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="60"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="K6" s="58"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="60"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="K7" s="61"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="63"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B1:G5"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="K2:Q7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -18319,7 +18462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -18690,7 +18833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -19174,7 +19317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -19537,7 +19680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -19901,7 +20044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -20385,7 +20528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <dimension ref="A1:T55"/>
   <sheetViews>
@@ -20419,12 +20562,12 @@
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
       <c r="G1" s="48"/>
-      <c r="I1" s="86" t="s">
+      <c r="I1" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
       <c r="N1" s="64" t="s">
         <v>58</v>
       </c>
@@ -20443,10 +20586,10 @@
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
       <c r="G2" s="50"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
       <c r="N2" s="81" t="s">
         <v>137</v>
       </c>
@@ -20530,7 +20673,7 @@
       <c r="K5" s="28">
         <v>6848</v>
       </c>
-      <c r="L5" s="83" t="s">
+      <c r="L5" s="86" t="s">
         <v>69</v>
       </c>
       <c r="N5" s="81"/>
@@ -20551,7 +20694,7 @@
       <c r="K6" s="28">
         <v>4038</v>
       </c>
-      <c r="L6" s="83"/>
+      <c r="L6" s="86"/>
       <c r="N6" s="81"/>
       <c r="O6" s="81"/>
       <c r="P6" s="81"/>
@@ -20588,7 +20731,7 @@
       <c r="K7" s="28">
         <v>3517</v>
       </c>
-      <c r="L7" s="83"/>
+      <c r="L7" s="86"/>
       <c r="N7" s="81"/>
       <c r="O7" s="81"/>
       <c r="P7" s="81"/>
@@ -20625,7 +20768,7 @@
       <c r="K8" s="28">
         <v>3311</v>
       </c>
-      <c r="L8" s="83"/>
+      <c r="L8" s="86"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -20662,7 +20805,7 @@
       <c r="K9" s="28">
         <v>3172</v>
       </c>
-      <c r="L9" s="83"/>
+      <c r="L9" s="86"/>
       <c r="N9" s="65" t="s">
         <v>59</v>
       </c>
@@ -20701,7 +20844,7 @@
       <c r="K10" s="28">
         <v>3106</v>
       </c>
-      <c r="L10" s="83"/>
+      <c r="L10" s="86"/>
       <c r="N10" s="75" t="s">
         <v>164</v>
       </c>
@@ -20740,13 +20883,13 @@
       <c r="K11" s="28">
         <v>3135</v>
       </c>
-      <c r="L11" s="83"/>
+      <c r="L11" s="86"/>
       <c r="N11" s="96"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="85"/>
       <c r="T11" s="97"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
@@ -20777,13 +20920,13 @@
       <c r="K12" s="28">
         <v>3222</v>
       </c>
-      <c r="L12" s="83"/>
+      <c r="L12" s="86"/>
       <c r="N12" s="96"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="85"/>
       <c r="T12" s="97"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -20814,7 +20957,7 @@
       <c r="K13" s="28">
         <v>3372</v>
       </c>
-      <c r="L13" s="83"/>
+      <c r="L13" s="86"/>
       <c r="N13" s="78"/>
       <c r="O13" s="79"/>
       <c r="P13" s="79"/>
@@ -20851,7 +20994,7 @@
       <c r="K14" s="28">
         <v>3575</v>
       </c>
-      <c r="L14" s="83"/>
+      <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -20881,7 +21024,7 @@
       <c r="K15" s="28">
         <v>3835</v>
       </c>
-      <c r="L15" s="83"/>
+      <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -20911,7 +21054,7 @@
       <c r="K16" s="28">
         <v>4262</v>
       </c>
-      <c r="L16" s="83"/>
+      <c r="L16" s="86"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -21258,7 +21401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <dimension ref="A1:T53"/>
   <sheetViews>
@@ -21284,12 +21427,12 @@
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
       <c r="G1" s="48"/>
-      <c r="I1" s="86" t="s">
+      <c r="I1" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
       <c r="N1" s="64" t="s">
         <v>58</v>
       </c>
@@ -21308,10 +21451,10 @@
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
       <c r="G2" s="50"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
       <c r="N2" s="81" t="s">
         <v>138</v>
       </c>
@@ -21395,7 +21538,7 @@
       <c r="K5" s="28">
         <v>2300</v>
       </c>
-      <c r="L5" s="83" t="s">
+      <c r="L5" s="86" t="s">
         <v>69</v>
       </c>
       <c r="N5" s="81"/>
@@ -21416,7 +21559,7 @@
       <c r="K6" s="28">
         <v>1600</v>
       </c>
-      <c r="L6" s="83"/>
+      <c r="L6" s="86"/>
       <c r="N6" s="81"/>
       <c r="O6" s="81"/>
       <c r="P6" s="81"/>
@@ -21453,7 +21596,7 @@
       <c r="K7" s="28">
         <v>1300</v>
       </c>
-      <c r="L7" s="83"/>
+      <c r="L7" s="86"/>
       <c r="N7" s="81"/>
       <c r="O7" s="81"/>
       <c r="P7" s="81"/>
@@ -21490,7 +21633,7 @@
       <c r="K8" s="28">
         <v>1300</v>
       </c>
-      <c r="L8" s="83"/>
+      <c r="L8" s="86"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -21527,7 +21670,7 @@
       <c r="K9" s="28">
         <v>1300</v>
       </c>
-      <c r="L9" s="83"/>
+      <c r="L9" s="86"/>
       <c r="N9" s="65" t="s">
         <v>59</v>
       </c>
@@ -21566,7 +21709,7 @@
       <c r="K10" s="28">
         <v>1200</v>
       </c>
-      <c r="L10" s="83"/>
+      <c r="L10" s="86"/>
       <c r="N10" s="75" t="s">
         <v>165</v>
       </c>
@@ -21605,13 +21748,13 @@
       <c r="K11" s="28">
         <v>1400</v>
       </c>
-      <c r="L11" s="83"/>
+      <c r="L11" s="86"/>
       <c r="N11" s="96"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="85"/>
       <c r="T11" s="97"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
@@ -21642,13 +21785,13 @@
       <c r="K12" s="28">
         <v>1400</v>
       </c>
-      <c r="L12" s="83"/>
+      <c r="L12" s="86"/>
       <c r="N12" s="96"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="85"/>
       <c r="T12" s="97"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -21679,7 +21822,7 @@
       <c r="K13" s="28">
         <v>1600</v>
       </c>
-      <c r="L13" s="83"/>
+      <c r="L13" s="86"/>
       <c r="N13" s="78"/>
       <c r="O13" s="79"/>
       <c r="P13" s="79"/>
@@ -21716,7 +21859,7 @@
       <c r="K14" s="28">
         <v>1700</v>
       </c>
-      <c r="L14" s="83"/>
+      <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -21746,7 +21889,7 @@
       <c r="K15" s="28">
         <v>1900</v>
       </c>
-      <c r="L15" s="83"/>
+      <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -21776,7 +21919,7 @@
       <c r="K16" s="28">
         <v>2100</v>
       </c>
-      <c r="L16" s="83"/>
+      <c r="L16" s="86"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -22115,7 +22258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <dimension ref="A1:T49"/>
   <sheetViews>
@@ -22149,12 +22292,12 @@
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
       <c r="G1" s="48"/>
-      <c r="I1" s="86" t="s">
+      <c r="I1" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
       <c r="N1" s="64" t="s">
         <v>58</v>
       </c>
@@ -22173,10 +22316,10 @@
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
       <c r="G2" s="50"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
       <c r="N2" s="81" t="s">
         <v>139</v>
       </c>
@@ -22260,7 +22403,7 @@
       <c r="K5" s="28">
         <v>0</v>
       </c>
-      <c r="L5" s="83" t="s">
+      <c r="L5" s="86" t="s">
         <v>69</v>
       </c>
       <c r="N5" s="81"/>
@@ -22281,7 +22424,7 @@
       <c r="K6" s="28">
         <v>0</v>
       </c>
-      <c r="L6" s="83"/>
+      <c r="L6" s="86"/>
       <c r="N6" s="81"/>
       <c r="O6" s="81"/>
       <c r="P6" s="81"/>
@@ -22318,7 +22461,7 @@
       <c r="K7" s="28">
         <v>6000</v>
       </c>
-      <c r="L7" s="83"/>
+      <c r="L7" s="86"/>
       <c r="N7" s="81"/>
       <c r="O7" s="81"/>
       <c r="P7" s="81"/>
@@ -22355,7 +22498,7 @@
       <c r="K8" s="28">
         <v>4530</v>
       </c>
-      <c r="L8" s="83"/>
+      <c r="L8" s="86"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -22392,7 +22535,7 @@
       <c r="K9" s="28">
         <v>4208</v>
       </c>
-      <c r="L9" s="83"/>
+      <c r="L9" s="86"/>
       <c r="N9" s="65" t="s">
         <v>59</v>
       </c>
@@ -22431,7 +22574,7 @@
       <c r="K10" s="28">
         <v>3355</v>
       </c>
-      <c r="L10" s="83"/>
+      <c r="L10" s="86"/>
       <c r="N10" s="75" t="s">
         <v>165</v>
       </c>
@@ -22470,13 +22613,13 @@
       <c r="K11" s="28">
         <v>3331</v>
       </c>
-      <c r="L11" s="83"/>
+      <c r="L11" s="86"/>
       <c r="N11" s="96"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
+      <c r="S11" s="85"/>
       <c r="T11" s="97"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
@@ -22507,13 +22650,13 @@
       <c r="K12" s="28">
         <v>3384</v>
       </c>
-      <c r="L12" s="83"/>
+      <c r="L12" s="86"/>
       <c r="N12" s="96"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
+      <c r="O12" s="85"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="85"/>
+      <c r="S12" s="85"/>
       <c r="T12" s="97"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -22544,7 +22687,7 @@
       <c r="K13" s="28">
         <v>3304</v>
       </c>
-      <c r="L13" s="83"/>
+      <c r="L13" s="86"/>
       <c r="N13" s="78"/>
       <c r="O13" s="79"/>
       <c r="P13" s="79"/>
@@ -22581,7 +22724,7 @@
       <c r="K14" s="28">
         <v>3569</v>
       </c>
-      <c r="L14" s="83"/>
+      <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -22611,7 +22754,7 @@
       <c r="K15" s="28">
         <v>3862</v>
       </c>
-      <c r="L15" s="83"/>
+      <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -22641,7 +22784,7 @@
       <c r="K16" s="28">
         <v>4289</v>
       </c>
-      <c r="L16" s="83"/>
+      <c r="L16" s="86"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -22671,7 +22814,7 @@
       <c r="K17" s="28">
         <v>4762</v>
       </c>
-      <c r="L17" s="83"/>
+      <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -22701,7 +22844,7 @@
       <c r="K18" s="30">
         <v>5503</v>
       </c>
-      <c r="L18" s="84" t="s">
+      <c r="L18" s="82" t="s">
         <v>71</v>
       </c>
     </row>
@@ -22733,7 +22876,7 @@
       <c r="K19" s="30">
         <v>6538</v>
       </c>
-      <c r="L19" s="84"/>
+      <c r="L19" s="82"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I20" s="29">
@@ -22745,7 +22888,7 @@
       <c r="K20" s="30">
         <v>8079.6</v>
       </c>
-      <c r="L20" s="84"/>
+      <c r="L20" s="82"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="37"/>
@@ -22758,7 +22901,7 @@
       <c r="K21" s="30">
         <v>10567.4</v>
       </c>
-      <c r="L21" s="84"/>
+      <c r="L21" s="82"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="37"/>
@@ -22771,7 +22914,7 @@
       <c r="K22" s="30">
         <v>15410.8</v>
       </c>
-      <c r="L22" s="84"/>
+      <c r="L22" s="82"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="37"/>
@@ -22784,7 +22927,7 @@
       <c r="K23" s="32">
         <v>29416.2</v>
       </c>
-      <c r="L23" s="85" t="s">
+      <c r="L23" s="83" t="s">
         <v>72</v>
       </c>
     </row>
@@ -22799,7 +22942,7 @@
       <c r="K24" s="32">
         <v>10128.719999999999</v>
       </c>
-      <c r="L24" s="85"/>
+      <c r="L24" s="83"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="37"/>
@@ -22812,7 +22955,7 @@
       <c r="K25" s="32">
         <v>6325.91</v>
       </c>
-      <c r="L25" s="85"/>
+      <c r="L25" s="83"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="37"/>
@@ -22825,7 +22968,7 @@
       <c r="K26" s="32">
         <v>7655.91</v>
       </c>
-      <c r="L26" s="85"/>
+      <c r="L26" s="83"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="37"/>
@@ -22838,7 +22981,7 @@
       <c r="K27" s="32">
         <v>9246.91</v>
       </c>
-      <c r="L27" s="85"/>
+      <c r="L27" s="83"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="37"/>
@@ -22851,7 +22994,7 @@
       <c r="K28" s="32">
         <v>11998.91</v>
       </c>
-      <c r="L28" s="85"/>
+      <c r="L28" s="83"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="37"/>
@@ -22864,7 +23007,7 @@
       <c r="K29" s="32">
         <v>15583.64</v>
       </c>
-      <c r="L29" s="85"/>
+      <c r="L29" s="83"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="37"/>
@@ -22877,7 +23020,7 @@
       <c r="K30" s="32">
         <v>22602.26</v>
       </c>
-      <c r="L30" s="85"/>
+      <c r="L30" s="83"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="37"/>
@@ -22890,7 +23033,7 @@
       <c r="K31" s="32">
         <v>42227.73</v>
       </c>
-      <c r="L31" s="85"/>
+      <c r="L31" s="83"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="37"/>
@@ -22977,6 +23120,137 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Q7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
+      <c r="K1" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+    </row>
+    <row r="2" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="K2" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="57"/>
+    </row>
+    <row r="3" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="60"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="50"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="60"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="46"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="60"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K6" s="58"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="60"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K7" s="61"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B1:G5"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="K2:Q7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q7"/>
   <sheetViews>
@@ -23107,7 +23381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -23583,7 +23857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P19"/>
   <sheetViews>
@@ -23977,7 +24251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -24449,134 +24723,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:Q7"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
-      <c r="K1" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-    </row>
-    <row r="2" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
-      <c r="K2" s="55" t="s">
-        <v>175</v>
-      </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="57"/>
-    </row>
-    <row r="3" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="60"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="50"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="60"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="60"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="K6" s="58"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="60"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="K7" s="61"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="63"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B1:G5"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="K2:Q7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Data Cleaning and feature engineering report/statistics_columns_with_missing_values.xlsx
+++ b/Data Cleaning and feature engineering report/statistics_columns_with_missing_values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gangu\OneDrive\Desktop\Academics\Predictive model to classify profitable borrowers\Data Cleaning and feature engineering report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D061342B-1324-452D-9E0E-58375E0F2518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B362B8-5B4E-4E22-951F-995210F6F05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1589,6 +1589,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1599,9 +1602,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4872,12 +4872,12 @@
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
       <c r="G1" s="52"/>
-      <c r="J1" s="89" t="s">
+      <c r="J1" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
       <c r="O1" s="68" t="s">
         <v>58</v>
       </c>
@@ -4896,10 +4896,10 @@
       <c r="E2" s="53"/>
       <c r="F2" s="53"/>
       <c r="G2" s="54"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
       <c r="O2" s="85" t="s">
         <v>81</v>
       </c>
@@ -4985,7 +4985,7 @@
       <c r="L5" s="19">
         <v>8625</v>
       </c>
-      <c r="M5" s="86" t="s">
+      <c r="M5" s="87" t="s">
         <v>69</v>
       </c>
       <c r="O5" s="85"/>
@@ -5006,7 +5006,7 @@
       <c r="L6" s="19">
         <v>5440.2000000000098</v>
       </c>
-      <c r="M6" s="86"/>
+      <c r="M6" s="87"/>
       <c r="O6" s="85"/>
       <c r="P6" s="85"/>
       <c r="Q6" s="85"/>
@@ -5043,7 +5043,7 @@
       <c r="L7" s="19">
         <v>5086.7999999999802</v>
       </c>
-      <c r="M7" s="86"/>
+      <c r="M7" s="87"/>
       <c r="O7" s="85"/>
       <c r="P7" s="85"/>
       <c r="Q7" s="85"/>
@@ -5080,7 +5080,7 @@
       <c r="L8" s="19">
         <v>5017</v>
       </c>
-      <c r="M8" s="86"/>
+      <c r="M8" s="87"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -5117,7 +5117,7 @@
       <c r="L9" s="19">
         <v>5254</v>
       </c>
-      <c r="M9" s="86"/>
+      <c r="M9" s="87"/>
       <c r="O9" s="69" t="s">
         <v>59</v>
       </c>
@@ -5156,7 +5156,7 @@
       <c r="L10" s="19">
         <v>5884</v>
       </c>
-      <c r="M10" s="86"/>
+      <c r="M10" s="87"/>
       <c r="O10" s="80" t="s">
         <v>157</v>
       </c>
@@ -5195,14 +5195,14 @@
       <c r="L11" s="19">
         <v>6893.6999999999498</v>
       </c>
-      <c r="M11" s="86"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
+      <c r="M11" s="87"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="86"/>
+      <c r="T11" s="86"/>
+      <c r="U11" s="86"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -5232,14 +5232,14 @@
       <c r="L12" s="19">
         <v>8751.3000000000393</v>
       </c>
-      <c r="M12" s="86"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90"/>
+      <c r="M12" s="87"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="86"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="86"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -5269,14 +5269,14 @@
       <c r="L13" s="19">
         <v>11991</v>
       </c>
-      <c r="M13" s="86"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="90"/>
-      <c r="U13" s="90"/>
+      <c r="M13" s="87"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="86"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -5306,7 +5306,7 @@
       <c r="L14" s="19">
         <v>17288</v>
       </c>
-      <c r="M14" s="86"/>
+      <c r="M14" s="87"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -5336,7 +5336,7 @@
       <c r="L15" s="15">
         <v>23130</v>
       </c>
-      <c r="M15" s="87" t="s">
+      <c r="M15" s="88" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5368,7 +5368,7 @@
       <c r="L16" s="15">
         <v>26472.199999999899</v>
       </c>
-      <c r="M16" s="87"/>
+      <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -5398,7 +5398,7 @@
       <c r="L17" s="15">
         <v>26124.799999999999</v>
       </c>
-      <c r="M17" s="87"/>
+      <c r="M17" s="88"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -5428,7 +5428,7 @@
       <c r="L18" s="15">
         <v>26162</v>
       </c>
-      <c r="M18" s="87"/>
+      <c r="M18" s="88"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -5458,7 +5458,7 @@
       <c r="L19" s="15">
         <v>28595</v>
       </c>
-      <c r="M19" s="87"/>
+      <c r="M19" s="88"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J20" s="14">
@@ -5470,7 +5470,7 @@
       <c r="L20" s="15">
         <v>33341.599999999999</v>
       </c>
-      <c r="M20" s="87"/>
+      <c r="M20" s="88"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J21" s="14">
@@ -5482,7 +5482,7 @@
       <c r="L21" s="15">
         <v>40955.3999999999</v>
       </c>
-      <c r="M21" s="87"/>
+      <c r="M21" s="88"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J22" s="14">
@@ -5494,7 +5494,7 @@
       <c r="L22" s="15">
         <v>55353</v>
       </c>
-      <c r="M22" s="87"/>
+      <c r="M22" s="88"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J23" s="16">
@@ -5506,7 +5506,7 @@
       <c r="L23" s="17">
         <v>93108</v>
       </c>
-      <c r="M23" s="88" t="s">
+      <c r="M23" s="89" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5520,7 +5520,7 @@
       <c r="L24" s="17">
         <v>29321.4399999999</v>
       </c>
-      <c r="M24" s="88"/>
+      <c r="M24" s="89"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J25" s="16">
@@ -5532,7 +5532,7 @@
       <c r="L25" s="17">
         <v>18197.560000000001</v>
       </c>
-      <c r="M25" s="88"/>
+      <c r="M25" s="89"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J26" s="16">
@@ -5544,7 +5544,7 @@
       <c r="L26" s="17">
         <v>21789</v>
       </c>
-      <c r="M26" s="88"/>
+      <c r="M26" s="89"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J27" s="16">
@@ -5556,7 +5556,7 @@
       <c r="L27" s="17">
         <v>26955.8999999999</v>
       </c>
-      <c r="M27" s="88"/>
+      <c r="M27" s="89"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J28" s="16">
@@ -5568,7 +5568,7 @@
       <c r="L28" s="17">
         <v>33622.939999997601</v>
       </c>
-      <c r="M28" s="88"/>
+      <c r="M28" s="89"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J29" s="16">
@@ -5580,7 +5580,7 @@
       <c r="L29" s="17">
         <v>45328.0500000026</v>
       </c>
-      <c r="M29" s="88"/>
+      <c r="M29" s="89"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J30" s="16">
@@ -5592,7 +5592,7 @@
       <c r="L30" s="17">
         <v>65600.709999998493</v>
       </c>
-      <c r="M30" s="88"/>
+      <c r="M30" s="89"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J31" s="16">
@@ -5604,7 +5604,7 @@
       <c r="L31" s="17">
         <v>131934.640000004</v>
       </c>
-      <c r="M31" s="88"/>
+      <c r="M31" s="89"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J32" s="20">
@@ -5622,6 +5622,9 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="M15:M22"/>
+    <mergeCell ref="M23:M31"/>
+    <mergeCell ref="J1:M2"/>
     <mergeCell ref="O1:U1"/>
     <mergeCell ref="O2:U7"/>
     <mergeCell ref="O9:U9"/>
@@ -5629,9 +5632,6 @@
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="B1:G5"/>
     <mergeCell ref="M5:M14"/>
-    <mergeCell ref="M15:M22"/>
-    <mergeCell ref="M23:M31"/>
-    <mergeCell ref="J1:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6434,8 +6434,8 @@
       <c r="F2" s="53"/>
       <c r="G2" s="54"/>
       <c r="J2" s="98"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
       <c r="M2" s="99"/>
       <c r="O2" s="85" t="s">
         <v>80</v>
@@ -6521,7 +6521,7 @@
       <c r="L5" s="28">
         <v>1100</v>
       </c>
-      <c r="M5" s="86" t="s">
+      <c r="M5" s="87" t="s">
         <v>69</v>
       </c>
       <c r="O5" s="85"/>
@@ -6542,7 +6542,7 @@
       <c r="L6" s="28">
         <v>540</v>
       </c>
-      <c r="M6" s="86"/>
+      <c r="M6" s="87"/>
       <c r="O6" s="85"/>
       <c r="P6" s="85"/>
       <c r="Q6" s="85"/>
@@ -6579,7 +6579,7 @@
       <c r="L7" s="28">
         <v>488</v>
       </c>
-      <c r="M7" s="86"/>
+      <c r="M7" s="87"/>
       <c r="O7" s="85"/>
       <c r="P7" s="85"/>
       <c r="Q7" s="85"/>
@@ -6616,7 +6616,7 @@
       <c r="L8" s="28">
         <v>477</v>
       </c>
-      <c r="M8" s="86"/>
+      <c r="M8" s="87"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -6653,7 +6653,7 @@
       <c r="L9" s="28">
         <v>496</v>
       </c>
-      <c r="M9" s="86"/>
+      <c r="M9" s="87"/>
       <c r="O9" s="69" t="s">
         <v>59</v>
       </c>
@@ -6692,7 +6692,7 @@
       <c r="L10" s="28">
         <v>542</v>
       </c>
-      <c r="M10" s="86"/>
+      <c r="M10" s="87"/>
       <c r="O10" s="80" t="s">
         <v>159</v>
       </c>
@@ -6731,14 +6731,14 @@
       <c r="L11" s="28">
         <v>636</v>
       </c>
-      <c r="M11" s="86"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
+      <c r="M11" s="87"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="86"/>
+      <c r="T11" s="86"/>
+      <c r="U11" s="86"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -6768,14 +6768,14 @@
       <c r="L12" s="28">
         <v>779</v>
       </c>
-      <c r="M12" s="86"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90"/>
+      <c r="M12" s="87"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="86"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="86"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -6805,14 +6805,14 @@
       <c r="L13" s="28">
         <v>999</v>
       </c>
-      <c r="M13" s="86"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="90"/>
-      <c r="U13" s="90"/>
+      <c r="M13" s="87"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="86"/>
+      <c r="T13" s="86"/>
+      <c r="U13" s="86"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -6842,7 +6842,7 @@
       <c r="L14" s="30">
         <v>1350</v>
       </c>
-      <c r="M14" s="87" t="s">
+      <c r="M14" s="88" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6874,7 +6874,7 @@
       <c r="L15" s="30">
         <v>1738</v>
       </c>
-      <c r="M15" s="87"/>
+      <c r="M15" s="88"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -6904,7 +6904,7 @@
       <c r="L16" s="30">
         <v>2054</v>
       </c>
-      <c r="M16" s="87"/>
+      <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -6934,7 +6934,7 @@
       <c r="L17" s="30">
         <v>2247</v>
       </c>
-      <c r="M17" s="87"/>
+      <c r="M17" s="88"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -6964,7 +6964,7 @@
       <c r="L18" s="30">
         <v>2471</v>
       </c>
-      <c r="M18" s="87"/>
+      <c r="M18" s="88"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -6994,7 +6994,7 @@
       <c r="L19" s="30">
         <v>2800</v>
       </c>
-      <c r="M19" s="87"/>
+      <c r="M19" s="88"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J20" s="29">
@@ -7006,7 +7006,7 @@
       <c r="L20" s="30">
         <v>3322</v>
       </c>
-      <c r="M20" s="87"/>
+      <c r="M20" s="88"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J21" s="29">
@@ -7018,7 +7018,7 @@
       <c r="L21" s="30">
         <v>4220</v>
       </c>
-      <c r="M21" s="87"/>
+      <c r="M21" s="88"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J22" s="29">
@@ -7030,7 +7030,7 @@
       <c r="L22" s="30">
         <v>5961</v>
       </c>
-      <c r="M22" s="87"/>
+      <c r="M22" s="88"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J23" s="31">
@@ -7042,7 +7042,7 @@
       <c r="L23" s="32">
         <v>10825</v>
       </c>
-      <c r="M23" s="88" t="s">
+      <c r="M23" s="89" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7056,7 +7056,7 @@
       <c r="L24" s="32">
         <v>3665.6</v>
       </c>
-      <c r="M24" s="88"/>
+      <c r="M24" s="89"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J25" s="31">
@@ -7068,7 +7068,7 @@
       <c r="L25" s="32">
         <v>2284.8000000000002</v>
       </c>
-      <c r="M25" s="88"/>
+      <c r="M25" s="89"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J26" s="31">
@@ -7080,7 +7080,7 @@
       <c r="L26" s="32">
         <v>2706.8</v>
       </c>
-      <c r="M26" s="88"/>
+      <c r="M26" s="89"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J27" s="31">
@@ -7092,7 +7092,7 @@
       <c r="L27" s="32">
         <v>3319.8</v>
       </c>
-      <c r="M27" s="88"/>
+      <c r="M27" s="89"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J28" s="31">
@@ -7104,7 +7104,7 @@
       <c r="L28" s="32">
         <v>4232</v>
       </c>
-      <c r="M28" s="88"/>
+      <c r="M28" s="89"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J29" s="31">
@@ -7116,7 +7116,7 @@
       <c r="L29" s="32">
         <v>5699.8</v>
       </c>
-      <c r="M29" s="88"/>
+      <c r="M29" s="89"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J30" s="31">
@@ -7128,7 +7128,7 @@
       <c r="L30" s="32">
         <v>8573</v>
       </c>
-      <c r="M30" s="88"/>
+      <c r="M30" s="89"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J31" s="31">
@@ -7140,7 +7140,7 @@
       <c r="L31" s="32">
         <v>16627.2</v>
       </c>
-      <c r="M31" s="88"/>
+      <c r="M31" s="89"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="J32" s="33">
@@ -7158,16 +7158,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="M14:M22"/>
+    <mergeCell ref="M23:M31"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B1:G5"/>
+    <mergeCell ref="J1:M2"/>
     <mergeCell ref="O1:U1"/>
     <mergeCell ref="O2:U7"/>
     <mergeCell ref="O9:U9"/>
     <mergeCell ref="O10:U13"/>
     <mergeCell ref="M5:M13"/>
-    <mergeCell ref="M14:M22"/>
-    <mergeCell ref="M23:M31"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B1:G5"/>
-    <mergeCell ref="J1:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8146,9 +8146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889A2433-60D7-4D50-A2C2-8D0431AB97E1}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9917,15 +9915,15 @@
       <c r="E2" s="53"/>
       <c r="F2" s="53"/>
       <c r="G2" s="54"/>
-      <c r="I2" s="90" t="s">
+      <c r="I2" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="49"/>
@@ -9935,13 +9933,13 @@
       <c r="E3" s="53"/>
       <c r="F3" s="53"/>
       <c r="G3" s="54"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
@@ -12984,15 +12982,15 @@
       <c r="E2" s="53"/>
       <c r="F2" s="53"/>
       <c r="G2" s="54"/>
-      <c r="I2" s="90" t="s">
+      <c r="I2" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="49"/>
@@ -13002,13 +13000,13 @@
       <c r="E3" s="53"/>
       <c r="F3" s="53"/>
       <c r="G3" s="54"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
     </row>
     <row r="4" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
@@ -17777,15 +17775,15 @@
       <c r="E2" s="53"/>
       <c r="F2" s="53"/>
       <c r="G2" s="54"/>
-      <c r="I2" s="90" t="s">
+      <c r="I2" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="49"/>
@@ -17795,13 +17793,13 @@
       <c r="E3" s="53"/>
       <c r="F3" s="53"/>
       <c r="G3" s="54"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
@@ -20562,12 +20560,12 @@
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
       <c r="G1" s="52"/>
-      <c r="I1" s="89" t="s">
+      <c r="I1" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
       <c r="N1" s="68" t="s">
         <v>58</v>
       </c>
@@ -20586,10 +20584,10 @@
       <c r="E2" s="53"/>
       <c r="F2" s="53"/>
       <c r="G2" s="54"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
       <c r="N2" s="85" t="s">
         <v>137</v>
       </c>
@@ -20673,7 +20671,7 @@
       <c r="K5" s="28">
         <v>6848</v>
       </c>
-      <c r="L5" s="86" t="s">
+      <c r="L5" s="87" t="s">
         <v>69</v>
       </c>
       <c r="N5" s="85"/>
@@ -20694,7 +20692,7 @@
       <c r="K6" s="28">
         <v>4038</v>
       </c>
-      <c r="L6" s="86"/>
+      <c r="L6" s="87"/>
       <c r="N6" s="85"/>
       <c r="O6" s="85"/>
       <c r="P6" s="85"/>
@@ -20731,7 +20729,7 @@
       <c r="K7" s="28">
         <v>3517</v>
       </c>
-      <c r="L7" s="86"/>
+      <c r="L7" s="87"/>
       <c r="N7" s="85"/>
       <c r="O7" s="85"/>
       <c r="P7" s="85"/>
@@ -20768,7 +20766,7 @@
       <c r="K8" s="28">
         <v>3311</v>
       </c>
-      <c r="L8" s="86"/>
+      <c r="L8" s="87"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -20805,7 +20803,7 @@
       <c r="K9" s="28">
         <v>3172</v>
       </c>
-      <c r="L9" s="86"/>
+      <c r="L9" s="87"/>
       <c r="N9" s="69" t="s">
         <v>59</v>
       </c>
@@ -20844,7 +20842,7 @@
       <c r="K10" s="28">
         <v>3106</v>
       </c>
-      <c r="L10" s="86"/>
+      <c r="L10" s="87"/>
       <c r="N10" s="79" t="s">
         <v>164</v>
       </c>
@@ -20883,13 +20881,13 @@
       <c r="K11" s="28">
         <v>3135</v>
       </c>
-      <c r="L11" s="86"/>
+      <c r="L11" s="87"/>
       <c r="N11" s="100"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="86"/>
       <c r="T11" s="101"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
@@ -20920,13 +20918,13 @@
       <c r="K12" s="28">
         <v>3222</v>
       </c>
-      <c r="L12" s="86"/>
+      <c r="L12" s="87"/>
       <c r="N12" s="100"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="86"/>
       <c r="T12" s="101"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -20957,7 +20955,7 @@
       <c r="K13" s="28">
         <v>3372</v>
       </c>
-      <c r="L13" s="86"/>
+      <c r="L13" s="87"/>
       <c r="N13" s="82"/>
       <c r="O13" s="83"/>
       <c r="P13" s="83"/>
@@ -20994,7 +20992,7 @@
       <c r="K14" s="28">
         <v>3575</v>
       </c>
-      <c r="L14" s="86"/>
+      <c r="L14" s="87"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -21024,7 +21022,7 @@
       <c r="K15" s="28">
         <v>3835</v>
       </c>
-      <c r="L15" s="86"/>
+      <c r="L15" s="87"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -21054,7 +21052,7 @@
       <c r="K16" s="28">
         <v>4262</v>
       </c>
-      <c r="L16" s="86"/>
+      <c r="L16" s="87"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -21427,12 +21425,12 @@
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
       <c r="G1" s="52"/>
-      <c r="I1" s="89" t="s">
+      <c r="I1" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
       <c r="N1" s="68" t="s">
         <v>58</v>
       </c>
@@ -21451,10 +21449,10 @@
       <c r="E2" s="53"/>
       <c r="F2" s="53"/>
       <c r="G2" s="54"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
       <c r="N2" s="85" t="s">
         <v>138</v>
       </c>
@@ -21538,7 +21536,7 @@
       <c r="K5" s="28">
         <v>2300</v>
       </c>
-      <c r="L5" s="86" t="s">
+      <c r="L5" s="87" t="s">
         <v>69</v>
       </c>
       <c r="N5" s="85"/>
@@ -21559,7 +21557,7 @@
       <c r="K6" s="28">
         <v>1600</v>
       </c>
-      <c r="L6" s="86"/>
+      <c r="L6" s="87"/>
       <c r="N6" s="85"/>
       <c r="O6" s="85"/>
       <c r="P6" s="85"/>
@@ -21596,7 +21594,7 @@
       <c r="K7" s="28">
         <v>1300</v>
       </c>
-      <c r="L7" s="86"/>
+      <c r="L7" s="87"/>
       <c r="N7" s="85"/>
       <c r="O7" s="85"/>
       <c r="P7" s="85"/>
@@ -21633,7 +21631,7 @@
       <c r="K8" s="28">
         <v>1300</v>
       </c>
-      <c r="L8" s="86"/>
+      <c r="L8" s="87"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -21670,7 +21668,7 @@
       <c r="K9" s="28">
         <v>1300</v>
       </c>
-      <c r="L9" s="86"/>
+      <c r="L9" s="87"/>
       <c r="N9" s="69" t="s">
         <v>59</v>
       </c>
@@ -21709,7 +21707,7 @@
       <c r="K10" s="28">
         <v>1200</v>
       </c>
-      <c r="L10" s="86"/>
+      <c r="L10" s="87"/>
       <c r="N10" s="79" t="s">
         <v>165</v>
       </c>
@@ -21748,13 +21746,13 @@
       <c r="K11" s="28">
         <v>1400</v>
       </c>
-      <c r="L11" s="86"/>
+      <c r="L11" s="87"/>
       <c r="N11" s="100"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="86"/>
       <c r="T11" s="101"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
@@ -21785,13 +21783,13 @@
       <c r="K12" s="28">
         <v>1400</v>
       </c>
-      <c r="L12" s="86"/>
+      <c r="L12" s="87"/>
       <c r="N12" s="100"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="86"/>
       <c r="T12" s="101"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -21822,7 +21820,7 @@
       <c r="K13" s="28">
         <v>1600</v>
       </c>
-      <c r="L13" s="86"/>
+      <c r="L13" s="87"/>
       <c r="N13" s="82"/>
       <c r="O13" s="83"/>
       <c r="P13" s="83"/>
@@ -21859,7 +21857,7 @@
       <c r="K14" s="28">
         <v>1700</v>
       </c>
-      <c r="L14" s="86"/>
+      <c r="L14" s="87"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -21889,7 +21887,7 @@
       <c r="K15" s="28">
         <v>1900</v>
       </c>
-      <c r="L15" s="86"/>
+      <c r="L15" s="87"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -21919,7 +21917,7 @@
       <c r="K16" s="28">
         <v>2100</v>
       </c>
-      <c r="L16" s="86"/>
+      <c r="L16" s="87"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -22292,12 +22290,12 @@
       <c r="E1" s="51"/>
       <c r="F1" s="51"/>
       <c r="G1" s="52"/>
-      <c r="I1" s="89" t="s">
+      <c r="I1" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
       <c r="N1" s="68" t="s">
         <v>58</v>
       </c>
@@ -22316,10 +22314,10 @@
       <c r="E2" s="53"/>
       <c r="F2" s="53"/>
       <c r="G2" s="54"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
       <c r="N2" s="85" t="s">
         <v>139</v>
       </c>
@@ -22403,7 +22401,7 @@
       <c r="K5" s="28">
         <v>0</v>
       </c>
-      <c r="L5" s="86" t="s">
+      <c r="L5" s="87" t="s">
         <v>69</v>
       </c>
       <c r="N5" s="85"/>
@@ -22424,7 +22422,7 @@
       <c r="K6" s="28">
         <v>0</v>
       </c>
-      <c r="L6" s="86"/>
+      <c r="L6" s="87"/>
       <c r="N6" s="85"/>
       <c r="O6" s="85"/>
       <c r="P6" s="85"/>
@@ -22461,7 +22459,7 @@
       <c r="K7" s="28">
         <v>6000</v>
       </c>
-      <c r="L7" s="86"/>
+      <c r="L7" s="87"/>
       <c r="N7" s="85"/>
       <c r="O7" s="85"/>
       <c r="P7" s="85"/>
@@ -22498,7 +22496,7 @@
       <c r="K8" s="28">
         <v>4530</v>
       </c>
-      <c r="L8" s="86"/>
+      <c r="L8" s="87"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -22535,7 +22533,7 @@
       <c r="K9" s="28">
         <v>4208</v>
       </c>
-      <c r="L9" s="86"/>
+      <c r="L9" s="87"/>
       <c r="N9" s="69" t="s">
         <v>59</v>
       </c>
@@ -22574,7 +22572,7 @@
       <c r="K10" s="28">
         <v>3355</v>
       </c>
-      <c r="L10" s="86"/>
+      <c r="L10" s="87"/>
       <c r="N10" s="79" t="s">
         <v>165</v>
       </c>
@@ -22613,13 +22611,13 @@
       <c r="K11" s="28">
         <v>3331</v>
       </c>
-      <c r="L11" s="86"/>
+      <c r="L11" s="87"/>
       <c r="N11" s="100"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
+      <c r="R11" s="86"/>
+      <c r="S11" s="86"/>
       <c r="T11" s="101"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
@@ -22650,13 +22648,13 @@
       <c r="K12" s="28">
         <v>3384</v>
       </c>
-      <c r="L12" s="86"/>
+      <c r="L12" s="87"/>
       <c r="N12" s="100"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="86"/>
       <c r="T12" s="101"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -22687,7 +22685,7 @@
       <c r="K13" s="28">
         <v>3304</v>
       </c>
-      <c r="L13" s="86"/>
+      <c r="L13" s="87"/>
       <c r="N13" s="82"/>
       <c r="O13" s="83"/>
       <c r="P13" s="83"/>
@@ -22724,7 +22722,7 @@
       <c r="K14" s="28">
         <v>3569</v>
       </c>
-      <c r="L14" s="86"/>
+      <c r="L14" s="87"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -22754,7 +22752,7 @@
       <c r="K15" s="28">
         <v>3862</v>
       </c>
-      <c r="L15" s="86"/>
+      <c r="L15" s="87"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -22784,7 +22782,7 @@
       <c r="K16" s="28">
         <v>4289</v>
       </c>
-      <c r="L16" s="86"/>
+      <c r="L16" s="87"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
@@ -22814,7 +22812,7 @@
       <c r="K17" s="28">
         <v>4762</v>
       </c>
-      <c r="L17" s="86"/>
+      <c r="L17" s="87"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -22844,7 +22842,7 @@
       <c r="K18" s="30">
         <v>5503</v>
       </c>
-      <c r="L18" s="87" t="s">
+      <c r="L18" s="88" t="s">
         <v>71</v>
       </c>
     </row>
@@ -22876,7 +22874,7 @@
       <c r="K19" s="30">
         <v>6538</v>
       </c>
-      <c r="L19" s="87"/>
+      <c r="L19" s="88"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I20" s="29">
@@ -22888,7 +22886,7 @@
       <c r="K20" s="30">
         <v>8079.6</v>
       </c>
-      <c r="L20" s="87"/>
+      <c r="L20" s="88"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="37"/>
@@ -22901,7 +22899,7 @@
       <c r="K21" s="30">
         <v>10567.4</v>
       </c>
-      <c r="L21" s="87"/>
+      <c r="L21" s="88"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="37"/>
@@ -22914,7 +22912,7 @@
       <c r="K22" s="30">
         <v>15410.8</v>
       </c>
-      <c r="L22" s="87"/>
+      <c r="L22" s="88"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="37"/>
@@ -22927,7 +22925,7 @@
       <c r="K23" s="32">
         <v>29416.2</v>
       </c>
-      <c r="L23" s="88" t="s">
+      <c r="L23" s="89" t="s">
         <v>72</v>
       </c>
     </row>
@@ -22942,7 +22940,7 @@
       <c r="K24" s="32">
         <v>10128.719999999999</v>
       </c>
-      <c r="L24" s="88"/>
+      <c r="L24" s="89"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="37"/>
@@ -22955,7 +22953,7 @@
       <c r="K25" s="32">
         <v>6325.91</v>
       </c>
-      <c r="L25" s="88"/>
+      <c r="L25" s="89"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="37"/>
@@ -22968,7 +22966,7 @@
       <c r="K26" s="32">
         <v>7655.91</v>
       </c>
-      <c r="L26" s="88"/>
+      <c r="L26" s="89"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="37"/>
@@ -22981,7 +22979,7 @@
       <c r="K27" s="32">
         <v>9246.91</v>
       </c>
-      <c r="L27" s="88"/>
+      <c r="L27" s="89"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="37"/>
@@ -22994,7 +22992,7 @@
       <c r="K28" s="32">
         <v>11998.91</v>
       </c>
-      <c r="L28" s="88"/>
+      <c r="L28" s="89"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="37"/>
@@ -23007,7 +23005,7 @@
       <c r="K29" s="32">
         <v>15583.64</v>
       </c>
-      <c r="L29" s="88"/>
+      <c r="L29" s="89"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="37"/>
@@ -23020,7 +23018,7 @@
       <c r="K30" s="32">
         <v>22602.26</v>
       </c>
-      <c r="L30" s="88"/>
+      <c r="L30" s="89"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="37"/>
@@ -23033,7 +23031,7 @@
       <c r="K31" s="32">
         <v>42227.73</v>
       </c>
-      <c r="L31" s="88"/>
+      <c r="L31" s="89"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="37"/>
